--- a/meta_stra_framwork/result/split/single.xlsx
+++ b/meta_stra_framwork/result/split/single.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="227">
   <si>
     <t>['D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-06 22:48:35</t>
   </si>
@@ -275,6 +275,117 @@
     <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']2020-07-06 23:51:02</t>
   </si>
   <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:21:10</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:21:31</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']2020-07-09 10:21:49</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre']2020-07-09 10:22:08</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:38:37</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:38:58</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']2020-07-09 10:39:14</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre']2020-07-09 10:39:32</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:44:47</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:45:08</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']2020-07-09 10:45:25</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre']2020-07-09 10:45:43</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:46:43</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:47:05</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']2020-07-09 10:47:23</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre']2020-07-09 10:47:42</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:52:59</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:53:21</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']2020-07-09 10:53:39</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff+K_shift_1#20#0&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre']2020-07-09 10:53:58</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:54:23</t>
+  </si>
+  <si>
+    <t>['D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:54:37</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:54:58</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:55:20</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:55:42</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:56:04</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:56:27</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']2020-07-09 10:56:50</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:57:18</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:57:41</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']2020-07-09 10:58:03</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:58:28</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']2020-07-09 10:58:51</t>
+  </si>
+  <si>
+    <t>['D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:59:06</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:59:29</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:59:55</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']2020-07-09 11:00:21</t>
+  </si>
+  <si>
     <t>strategy_name</t>
   </si>
   <si>
@@ -422,6 +533,15 @@
     <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff']</t>
   </si>
   <si>
+    <t>['D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre']</t>
+  </si>
+  <si>
     <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-06 22:48:27</t>
   </si>
   <si>
@@ -456,6 +576,45 @@
   </si>
   <si>
     <t>['K#90#1&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-06 23:50:26</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:21:11</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:21:32</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']2020-07-09 10:21:50</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']2020-07-09 10:39:15</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:46:44</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:47:06</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:53:22</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#90#1&amp;thre']2020-07-09 10:53:40</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:54:59</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'K_shift_1#20#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+K_shift_1#20#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:55:21</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:55:43</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre', 'close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*D_shift_1#80#1&amp;HS&amp;thre+close_MA_10_shift_1#close_MA_10#1&amp;HS&amp;diff*K_shift_1#90#1&amp;thre']2020-07-09 10:58:04</t>
+  </si>
+  <si>
+    <t>['K#90#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre', 'D_shift_1#10#0&amp;HS&amp;thre*D_shift_1#80#1&amp;HS&amp;thre+D_shift_1#10#0&amp;HS&amp;thre*K_shift_1#90#1&amp;thre']2020-07-09 10:59:30</t>
   </si>
   <si>
     <t>start_date</t>
@@ -894,13 +1053,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CJ26"/>
+  <dimension ref="A1:DU26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:88">
+    <row r="1" spans="1:125">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1162,276 +1321,498 @@
       <c r="CJ1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CK1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:88">
+    <row r="2" spans="1:125">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="I2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="J2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="M2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="O2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="Q2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="S2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="T2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="U2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="V2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="W2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="X2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="Y2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="Z2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AA2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AB2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="AC2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="AD2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="AE2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="AF2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="AG2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="AH2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AI2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>166</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>158</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>151</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>160</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>161</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>162</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>163</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>169</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>170</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>171</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>151</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>149</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>158</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>161</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>165</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:125">
+      <c r="A3" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>122</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>123</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>124</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>125</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>126</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>134</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>114</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>123</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>124</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>125</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>126</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>132</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>133</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>134</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>114</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>121</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:88">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="B3">
         <v>-0.169725687382547</v>
@@ -1694,10 +2075,121 @@
       <c r="CJ3">
         <v>-0.169725687382547</v>
       </c>
+      <c r="CK3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="CL3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="CM3">
+        <v>-0.0191271031645851</v>
+      </c>
+      <c r="CN3">
+        <v>-0.04086846755869711</v>
+      </c>
+      <c r="CO3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="CP3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="CQ3">
+        <v>-0.0191271031645851</v>
+      </c>
+      <c r="CR3">
+        <v>-0.04086846755869711</v>
+      </c>
+      <c r="CS3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="CT3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="CU3">
+        <v>-0.0191271031645851</v>
+      </c>
+      <c r="CV3">
+        <v>-0.04086846755869711</v>
+      </c>
+      <c r="CW3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="CX3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="CY3">
+        <v>-0.0191271031645851</v>
+      </c>
+      <c r="CZ3">
+        <v>-0.04086846755869711</v>
+      </c>
+      <c r="DA3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="DB3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="DC3">
+        <v>-0.0191271031645851</v>
+      </c>
+      <c r="DD3">
+        <v>-0.04086846755869711</v>
+      </c>
+      <c r="DE3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="DH3">
+        <v>-0.3297645129370013</v>
+      </c>
+      <c r="DI3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="DJ3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="DK3">
+        <v>-0.169365390665659</v>
+      </c>
+      <c r="DL3">
+        <v>-0.1697255208141001</v>
+      </c>
+      <c r="DM3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="DN3">
+        <v>-0.3297645129370013</v>
+      </c>
+      <c r="DO3">
+        <v>-0.169725687382547</v>
+      </c>
+      <c r="DP3">
+        <v>-0.169365390665659</v>
+      </c>
+      <c r="DQ3">
+        <v>-0.1697255208141001</v>
+      </c>
+      <c r="DR3">
+        <v>0</v>
+      </c>
+      <c r="DS3">
+        <v>-0.3297645129370013</v>
+      </c>
+      <c r="DT3">
+        <v>-0.169365390665659</v>
+      </c>
+      <c r="DU3">
+        <v>-0.1697255208141001</v>
+      </c>
     </row>
-    <row r="4" spans="1:88">
+    <row r="4" spans="1:125">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -1960,16 +2452,127 @@
       <c r="CJ4">
         <v>21</v>
       </c>
+      <c r="CK4">
+        <v>21</v>
+      </c>
+      <c r="CL4">
+        <v>21</v>
+      </c>
+      <c r="CM4">
+        <v>38</v>
+      </c>
+      <c r="CN4">
+        <v>26</v>
+      </c>
+      <c r="CO4">
+        <v>21</v>
+      </c>
+      <c r="CP4">
+        <v>21</v>
+      </c>
+      <c r="CQ4">
+        <v>38</v>
+      </c>
+      <c r="CR4">
+        <v>26</v>
+      </c>
+      <c r="CS4">
+        <v>21</v>
+      </c>
+      <c r="CT4">
+        <v>21</v>
+      </c>
+      <c r="CU4">
+        <v>38</v>
+      </c>
+      <c r="CV4">
+        <v>26</v>
+      </c>
+      <c r="CW4">
+        <v>21</v>
+      </c>
+      <c r="CX4">
+        <v>21</v>
+      </c>
+      <c r="CY4">
+        <v>38</v>
+      </c>
+      <c r="CZ4">
+        <v>26</v>
+      </c>
+      <c r="DA4">
+        <v>21</v>
+      </c>
+      <c r="DB4">
+        <v>21</v>
+      </c>
+      <c r="DC4">
+        <v>38</v>
+      </c>
+      <c r="DD4">
+        <v>26</v>
+      </c>
+      <c r="DE4">
+        <v>21</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>21</v>
+      </c>
+      <c r="DH4">
+        <v>19</v>
+      </c>
+      <c r="DI4">
+        <v>21</v>
+      </c>
+      <c r="DJ4">
+        <v>21</v>
+      </c>
+      <c r="DK4">
+        <v>19</v>
+      </c>
+      <c r="DL4">
+        <v>21</v>
+      </c>
+      <c r="DM4">
+        <v>21</v>
+      </c>
+      <c r="DN4">
+        <v>19</v>
+      </c>
+      <c r="DO4">
+        <v>21</v>
+      </c>
+      <c r="DP4">
+        <v>19</v>
+      </c>
+      <c r="DQ4">
+        <v>21</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>19</v>
+      </c>
+      <c r="DT4">
+        <v>19</v>
+      </c>
+      <c r="DU4">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:88">
+    <row r="5" spans="1:125">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>-1.7129660633188</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D5">
         <v>-1.7129660633188</v>
@@ -1999,7 +2602,7 @@
         <v>-1.7129660633188</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="N5">
         <v>-1.7129660633188</v>
@@ -2029,7 +2632,7 @@
         <v>-1.7129660633188</v>
       </c>
       <c r="W5" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="X5">
         <v>-1.7129660633188</v>
@@ -2077,7 +2680,7 @@
         <v>-1.233581741194121</v>
       </c>
       <c r="AM5" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="AN5">
         <v>-1.654499570795751</v>
@@ -2226,10 +2829,121 @@
       <c r="CJ5">
         <v>-1.7129660633188</v>
       </c>
+      <c r="CK5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="CL5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="CM5">
+        <v>-4.023266008210396</v>
+      </c>
+      <c r="CN5">
+        <v>-1.233581741194121</v>
+      </c>
+      <c r="CO5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="CP5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="CQ5">
+        <v>-4.023266008210396</v>
+      </c>
+      <c r="CR5">
+        <v>-1.233581741194121</v>
+      </c>
+      <c r="CS5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="CT5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="CU5">
+        <v>-4.023266008210396</v>
+      </c>
+      <c r="CV5">
+        <v>-1.233581741194121</v>
+      </c>
+      <c r="CW5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="CX5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="CY5">
+        <v>-4.023266008210396</v>
+      </c>
+      <c r="CZ5">
+        <v>-1.233581741194121</v>
+      </c>
+      <c r="DA5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="DB5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="DC5">
+        <v>-4.023266008210396</v>
+      </c>
+      <c r="DD5">
+        <v>-1.233581741194121</v>
+      </c>
+      <c r="DE5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DG5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="DH5">
+        <v>-1.654499570795751</v>
+      </c>
+      <c r="DI5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="DJ5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="DK5">
+        <v>-0.3820092034639865</v>
+      </c>
+      <c r="DL5">
+        <v>-1.722471344634357</v>
+      </c>
+      <c r="DM5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="DN5">
+        <v>-1.654499570795751</v>
+      </c>
+      <c r="DO5">
+        <v>-1.7129660633188</v>
+      </c>
+      <c r="DP5">
+        <v>-0.3820092034639865</v>
+      </c>
+      <c r="DQ5">
+        <v>-1.722471344634357</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>150</v>
+      </c>
+      <c r="DS5">
+        <v>-1.654499570795751</v>
+      </c>
+      <c r="DT5">
+        <v>-0.3820092034639865</v>
+      </c>
+      <c r="DU5">
+        <v>-1.722471344634357</v>
+      </c>
     </row>
-    <row r="6" spans="1:88">
+    <row r="6" spans="1:125">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>-0.1677735673227468</v>
@@ -2492,10 +3206,121 @@
       <c r="CJ6">
         <v>-0.1677735673227468</v>
       </c>
+      <c r="CK6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="CL6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="CM6">
+        <v>-0.009877589444450446</v>
+      </c>
+      <c r="CN6">
+        <v>-0.02971529679541182</v>
+      </c>
+      <c r="CO6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="CP6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="CQ6">
+        <v>-0.009877589444450446</v>
+      </c>
+      <c r="CR6">
+        <v>-0.02971529679541182</v>
+      </c>
+      <c r="CS6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="CT6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="CU6">
+        <v>-0.009877589444450446</v>
+      </c>
+      <c r="CV6">
+        <v>-0.02971529679541182</v>
+      </c>
+      <c r="CW6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="CX6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="CY6">
+        <v>-0.009877589444450446</v>
+      </c>
+      <c r="CZ6">
+        <v>-0.02971529679541182</v>
+      </c>
+      <c r="DA6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="DB6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="DC6">
+        <v>-0.009877589444450446</v>
+      </c>
+      <c r="DD6">
+        <v>-0.02971529679541182</v>
+      </c>
+      <c r="DE6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="DH6">
+        <v>-0.3283546463628393</v>
+      </c>
+      <c r="DI6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="DJ6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="DK6">
+        <v>-0.04098097413276729</v>
+      </c>
+      <c r="DL6">
+        <v>-0.1677730357771929</v>
+      </c>
+      <c r="DM6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="DN6">
+        <v>-0.3283546463628393</v>
+      </c>
+      <c r="DO6">
+        <v>-0.1677735673227468</v>
+      </c>
+      <c r="DP6">
+        <v>-0.04098097413276729</v>
+      </c>
+      <c r="DQ6">
+        <v>-0.1677730357771929</v>
+      </c>
+      <c r="DR6">
+        <v>0</v>
+      </c>
+      <c r="DS6">
+        <v>-0.3283546463628393</v>
+      </c>
+      <c r="DT6">
+        <v>-0.04098097413276729</v>
+      </c>
+      <c r="DU6">
+        <v>-0.1677730357771929</v>
+      </c>
     </row>
-    <row r="7" spans="1:88">
+    <row r="7" spans="1:125">
       <c r="A7" s="1" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>-0.103188934846746</v>
@@ -2758,10 +3583,121 @@
       <c r="CJ7">
         <v>-0.103188934846746</v>
       </c>
+      <c r="CK7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="CL7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="CM7">
+        <v>-0.01018659615908601</v>
+      </c>
+      <c r="CN7">
+        <v>-0.05157094769484061</v>
+      </c>
+      <c r="CO7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="CP7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="CQ7">
+        <v>-0.01018659615908601</v>
+      </c>
+      <c r="CR7">
+        <v>-0.05157094769484061</v>
+      </c>
+      <c r="CS7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="CT7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="CU7">
+        <v>-0.01018659615908601</v>
+      </c>
+      <c r="CV7">
+        <v>-0.05157094769484061</v>
+      </c>
+      <c r="CW7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="CX7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="CY7">
+        <v>-0.01018659615908601</v>
+      </c>
+      <c r="CZ7">
+        <v>-0.05157094769484061</v>
+      </c>
+      <c r="DA7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="DB7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="DC7">
+        <v>-0.01018659615908601</v>
+      </c>
+      <c r="DD7">
+        <v>-0.05157094769484061</v>
+      </c>
+      <c r="DE7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="DF7">
+        <v>0</v>
+      </c>
+      <c r="DG7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="DH7">
+        <v>-0.1039499029512398</v>
+      </c>
+      <c r="DI7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="DJ7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="DK7">
+        <v>-0.1029515129766329</v>
+      </c>
+      <c r="DL7">
+        <v>-0.10999407361725</v>
+      </c>
+      <c r="DM7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="DN7">
+        <v>-0.1039499029512398</v>
+      </c>
+      <c r="DO7">
+        <v>-0.103188934846746</v>
+      </c>
+      <c r="DP7">
+        <v>-0.1029515129766329</v>
+      </c>
+      <c r="DQ7">
+        <v>-0.10999407361725</v>
+      </c>
+      <c r="DR7">
+        <v>0</v>
+      </c>
+      <c r="DS7">
+        <v>-0.1039499029512398</v>
+      </c>
+      <c r="DT7">
+        <v>-0.1029515129766329</v>
+      </c>
+      <c r="DU7">
+        <v>-0.10999407361725</v>
+      </c>
     </row>
-    <row r="8" spans="1:88">
+    <row r="8" spans="1:125">
       <c r="A8" s="1" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>25</v>
@@ -3024,16 +3960,127 @@
       <c r="CJ8">
         <v>25</v>
       </c>
+      <c r="CK8">
+        <v>25</v>
+      </c>
+      <c r="CL8">
+        <v>25</v>
+      </c>
+      <c r="CM8">
+        <v>46</v>
+      </c>
+      <c r="CN8">
+        <v>28</v>
+      </c>
+      <c r="CO8">
+        <v>25</v>
+      </c>
+      <c r="CP8">
+        <v>25</v>
+      </c>
+      <c r="CQ8">
+        <v>46</v>
+      </c>
+      <c r="CR8">
+        <v>28</v>
+      </c>
+      <c r="CS8">
+        <v>25</v>
+      </c>
+      <c r="CT8">
+        <v>25</v>
+      </c>
+      <c r="CU8">
+        <v>46</v>
+      </c>
+      <c r="CV8">
+        <v>28</v>
+      </c>
+      <c r="CW8">
+        <v>25</v>
+      </c>
+      <c r="CX8">
+        <v>25</v>
+      </c>
+      <c r="CY8">
+        <v>46</v>
+      </c>
+      <c r="CZ8">
+        <v>28</v>
+      </c>
+      <c r="DA8">
+        <v>25</v>
+      </c>
+      <c r="DB8">
+        <v>25</v>
+      </c>
+      <c r="DC8">
+        <v>46</v>
+      </c>
+      <c r="DD8">
+        <v>28</v>
+      </c>
+      <c r="DE8">
+        <v>25</v>
+      </c>
+      <c r="DF8">
+        <v>0</v>
+      </c>
+      <c r="DG8">
+        <v>25</v>
+      </c>
+      <c r="DH8">
+        <v>22</v>
+      </c>
+      <c r="DI8">
+        <v>25</v>
+      </c>
+      <c r="DJ8">
+        <v>25</v>
+      </c>
+      <c r="DK8">
+        <v>25</v>
+      </c>
+      <c r="DL8">
+        <v>23</v>
+      </c>
+      <c r="DM8">
+        <v>25</v>
+      </c>
+      <c r="DN8">
+        <v>22</v>
+      </c>
+      <c r="DO8">
+        <v>25</v>
+      </c>
+      <c r="DP8">
+        <v>25</v>
+      </c>
+      <c r="DQ8">
+        <v>23</v>
+      </c>
+      <c r="DR8">
+        <v>0</v>
+      </c>
+      <c r="DS8">
+        <v>22</v>
+      </c>
+      <c r="DT8">
+        <v>25</v>
+      </c>
+      <c r="DU8">
+        <v>23</v>
+      </c>
     </row>
-    <row r="9" spans="1:88">
+    <row r="9" spans="1:125">
       <c r="A9" s="1" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>1.469651709549237</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D9">
         <v>1.469651709549237</v>
@@ -3063,7 +4110,7 @@
         <v>1.469651709549237</v>
       </c>
       <c r="M9" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="N9">
         <v>1.469651709549237</v>
@@ -3093,7 +4140,7 @@
         <v>1.469651709549237</v>
       </c>
       <c r="W9" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="X9">
         <v>1.469651709549237</v>
@@ -3141,7 +4188,7 @@
         <v>0.4576013505535197</v>
       </c>
       <c r="AM9" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="AN9">
         <v>0.9920852059590499</v>
@@ -3290,10 +4337,121 @@
       <c r="CJ9">
         <v>1.469651709549237</v>
       </c>
+      <c r="CK9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="CL9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="CM9">
+        <v>-1.993603757986715</v>
+      </c>
+      <c r="CN9">
+        <v>0.4576013505535197</v>
+      </c>
+      <c r="CO9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="CP9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="CQ9">
+        <v>-1.993603757986715</v>
+      </c>
+      <c r="CR9">
+        <v>0.4576013505535197</v>
+      </c>
+      <c r="CS9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="CT9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="CU9">
+        <v>-1.993603757986715</v>
+      </c>
+      <c r="CV9">
+        <v>0.4576013505535197</v>
+      </c>
+      <c r="CW9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="CX9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="CY9">
+        <v>-1.993603757986715</v>
+      </c>
+      <c r="CZ9">
+        <v>0.4576013505535197</v>
+      </c>
+      <c r="DA9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="DB9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="DC9">
+        <v>-1.993603757986715</v>
+      </c>
+      <c r="DD9">
+        <v>0.4576013505535197</v>
+      </c>
+      <c r="DE9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DG9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="DH9">
+        <v>0.9920852059590499</v>
+      </c>
+      <c r="DI9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="DJ9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="DK9">
+        <v>2.305352818123096</v>
+      </c>
+      <c r="DL9">
+        <v>1.106785778934382</v>
+      </c>
+      <c r="DM9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="DN9">
+        <v>0.9920852059590499</v>
+      </c>
+      <c r="DO9">
+        <v>1.469651709549237</v>
+      </c>
+      <c r="DP9">
+        <v>2.305352818123096</v>
+      </c>
+      <c r="DQ9">
+        <v>1.106785778934382</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>150</v>
+      </c>
+      <c r="DS9">
+        <v>0.9920852059590499</v>
+      </c>
+      <c r="DT9">
+        <v>2.305352818123096</v>
+      </c>
+      <c r="DU9">
+        <v>1.106785778934382</v>
+      </c>
     </row>
-    <row r="10" spans="1:88">
+    <row r="10" spans="1:125">
       <c r="A10" s="1" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>0.224892816582893</v>
@@ -3556,10 +4714,121 @@
       <c r="CJ10">
         <v>0.224892816582893</v>
       </c>
+      <c r="CK10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="CL10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="CM10">
+        <v>-0.001833936402678695</v>
+      </c>
+      <c r="CN10">
+        <v>0.05450595576519472</v>
+      </c>
+      <c r="CO10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="CP10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="CQ10">
+        <v>-0.001833936402678695</v>
+      </c>
+      <c r="CR10">
+        <v>0.05450595576519472</v>
+      </c>
+      <c r="CS10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="CT10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="CU10">
+        <v>-0.001833936402678695</v>
+      </c>
+      <c r="CV10">
+        <v>0.05450595576519472</v>
+      </c>
+      <c r="CW10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="CX10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="CY10">
+        <v>-0.001833936402678695</v>
+      </c>
+      <c r="CZ10">
+        <v>0.05450595576519472</v>
+      </c>
+      <c r="DA10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="DB10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="DC10">
+        <v>-0.001833936402678695</v>
+      </c>
+      <c r="DD10">
+        <v>0.05450595576519472</v>
+      </c>
+      <c r="DE10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="DF10">
+        <v>0</v>
+      </c>
+      <c r="DG10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="DH10">
+        <v>0.2272589072618992</v>
+      </c>
+      <c r="DI10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="DJ10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="DK10">
+        <v>0.4599632156942243</v>
+      </c>
+      <c r="DL10">
+        <v>0.2540559893278926</v>
+      </c>
+      <c r="DM10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="DN10">
+        <v>0.2272589072618992</v>
+      </c>
+      <c r="DO10">
+        <v>0.224892816582893</v>
+      </c>
+      <c r="DP10">
+        <v>0.4599632156942243</v>
+      </c>
+      <c r="DQ10">
+        <v>0.2540559893278926</v>
+      </c>
+      <c r="DR10">
+        <v>0</v>
+      </c>
+      <c r="DS10">
+        <v>0.2272589072618992</v>
+      </c>
+      <c r="DT10">
+        <v>0.4599632156942243</v>
+      </c>
+      <c r="DU10">
+        <v>0.2540559893278926</v>
+      </c>
     </row>
-    <row r="11" spans="1:88">
+    <row r="11" spans="1:125">
       <c r="A11" s="1" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>-0.30470029579916</v>
@@ -3822,10 +5091,121 @@
       <c r="CJ11">
         <v>-0.30470029579916</v>
       </c>
+      <c r="CK11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="CL11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="CM11">
+        <v>-0.0188927807414363</v>
+      </c>
+      <c r="CN11">
+        <v>-0.06690348468532403</v>
+      </c>
+      <c r="CO11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="CP11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="CQ11">
+        <v>-0.0188927807414363</v>
+      </c>
+      <c r="CR11">
+        <v>-0.06690348468532403</v>
+      </c>
+      <c r="CS11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="CT11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="CU11">
+        <v>-0.0188927807414363</v>
+      </c>
+      <c r="CV11">
+        <v>-0.06690348468532403</v>
+      </c>
+      <c r="CW11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="CX11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="CY11">
+        <v>-0.0188927807414363</v>
+      </c>
+      <c r="CZ11">
+        <v>-0.06690348468532403</v>
+      </c>
+      <c r="DA11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="DB11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="DC11">
+        <v>-0.0188927807414363</v>
+      </c>
+      <c r="DD11">
+        <v>-0.06690348468532403</v>
+      </c>
+      <c r="DE11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="DF11">
+        <v>0</v>
+      </c>
+      <c r="DG11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="DH11">
+        <v>-0.370621065327852</v>
+      </c>
+      <c r="DI11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="DJ11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="DK11">
+        <v>-0.3889207220247911</v>
+      </c>
+      <c r="DL11">
+        <v>-0.3160541760863028</v>
+      </c>
+      <c r="DM11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="DN11">
+        <v>-0.370621065327852</v>
+      </c>
+      <c r="DO11">
+        <v>-0.30470029579916</v>
+      </c>
+      <c r="DP11">
+        <v>-0.3889207220247911</v>
+      </c>
+      <c r="DQ11">
+        <v>-0.3160541760863028</v>
+      </c>
+      <c r="DR11">
+        <v>0</v>
+      </c>
+      <c r="DS11">
+        <v>-0.370621065327852</v>
+      </c>
+      <c r="DT11">
+        <v>-0.3889207220247911</v>
+      </c>
+      <c r="DU11">
+        <v>-0.3160541760863028</v>
+      </c>
     </row>
-    <row r="12" spans="1:88">
+    <row r="12" spans="1:125">
       <c r="A12" s="1" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -4088,16 +5468,127 @@
       <c r="CJ12">
         <v>12</v>
       </c>
+      <c r="CK12">
+        <v>12</v>
+      </c>
+      <c r="CL12">
+        <v>12</v>
+      </c>
+      <c r="CM12">
+        <v>22</v>
+      </c>
+      <c r="CN12">
+        <v>13</v>
+      </c>
+      <c r="CO12">
+        <v>12</v>
+      </c>
+      <c r="CP12">
+        <v>12</v>
+      </c>
+      <c r="CQ12">
+        <v>22</v>
+      </c>
+      <c r="CR12">
+        <v>13</v>
+      </c>
+      <c r="CS12">
+        <v>12</v>
+      </c>
+      <c r="CT12">
+        <v>12</v>
+      </c>
+      <c r="CU12">
+        <v>22</v>
+      </c>
+      <c r="CV12">
+        <v>13</v>
+      </c>
+      <c r="CW12">
+        <v>12</v>
+      </c>
+      <c r="CX12">
+        <v>12</v>
+      </c>
+      <c r="CY12">
+        <v>22</v>
+      </c>
+      <c r="CZ12">
+        <v>13</v>
+      </c>
+      <c r="DA12">
+        <v>12</v>
+      </c>
+      <c r="DB12">
+        <v>12</v>
+      </c>
+      <c r="DC12">
+        <v>22</v>
+      </c>
+      <c r="DD12">
+        <v>13</v>
+      </c>
+      <c r="DE12">
+        <v>12</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <v>12</v>
+      </c>
+      <c r="DH12">
+        <v>11</v>
+      </c>
+      <c r="DI12">
+        <v>12</v>
+      </c>
+      <c r="DJ12">
+        <v>12</v>
+      </c>
+      <c r="DK12">
+        <v>11</v>
+      </c>
+      <c r="DL12">
+        <v>12</v>
+      </c>
+      <c r="DM12">
+        <v>12</v>
+      </c>
+      <c r="DN12">
+        <v>11</v>
+      </c>
+      <c r="DO12">
+        <v>12</v>
+      </c>
+      <c r="DP12">
+        <v>11</v>
+      </c>
+      <c r="DQ12">
+        <v>12</v>
+      </c>
+      <c r="DR12">
+        <v>0</v>
+      </c>
+      <c r="DS12">
+        <v>11</v>
+      </c>
+      <c r="DT12">
+        <v>11</v>
+      </c>
+      <c r="DU12">
+        <v>12</v>
+      </c>
     </row>
-    <row r="13" spans="1:88">
+    <row r="13" spans="1:125">
       <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>-2.111962848770139</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D13">
         <v>-2.111962848770139</v>
@@ -4127,7 +5618,7 @@
         <v>-2.111962848770139</v>
       </c>
       <c r="M13" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="N13">
         <v>-2.111962848770139</v>
@@ -4157,7 +5648,7 @@
         <v>-2.111962848770139</v>
       </c>
       <c r="W13" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="X13">
         <v>-2.111962848770139</v>
@@ -4205,7 +5696,7 @@
         <v>-0.07220173325114063</v>
       </c>
       <c r="AM13" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="AN13">
         <v>-1.885901487314217</v>
@@ -4354,10 +5845,121 @@
       <c r="CJ13">
         <v>-2.111962848770139</v>
       </c>
+      <c r="CK13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="CL13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="CM13">
+        <v>-2.918717121156569</v>
+      </c>
+      <c r="CN13">
+        <v>-0.07220173325114063</v>
+      </c>
+      <c r="CO13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="CP13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="CQ13">
+        <v>-2.918717121156569</v>
+      </c>
+      <c r="CR13">
+        <v>-0.07220173325114063</v>
+      </c>
+      <c r="CS13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="CT13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="CU13">
+        <v>-2.918717121156569</v>
+      </c>
+      <c r="CV13">
+        <v>-0.07220173325114063</v>
+      </c>
+      <c r="CW13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="CX13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="CY13">
+        <v>-2.918717121156569</v>
+      </c>
+      <c r="CZ13">
+        <v>-0.07220173325114063</v>
+      </c>
+      <c r="DA13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="DB13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="DC13">
+        <v>-2.918717121156569</v>
+      </c>
+      <c r="DD13">
+        <v>-0.07220173325114063</v>
+      </c>
+      <c r="DE13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DG13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="DH13">
+        <v>-1.885901487314217</v>
+      </c>
+      <c r="DI13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="DJ13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="DK13">
+        <v>-1.239199063200044</v>
+      </c>
+      <c r="DL13">
+        <v>-1.984864385223374</v>
+      </c>
+      <c r="DM13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="DN13">
+        <v>-1.885901487314217</v>
+      </c>
+      <c r="DO13">
+        <v>-2.111962848770139</v>
+      </c>
+      <c r="DP13">
+        <v>-1.239199063200044</v>
+      </c>
+      <c r="DQ13">
+        <v>-1.984864385223374</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>150</v>
+      </c>
+      <c r="DS13">
+        <v>-1.885901487314217</v>
+      </c>
+      <c r="DT13">
+        <v>-1.239199063200044</v>
+      </c>
+      <c r="DU13">
+        <v>-1.984864385223374</v>
+      </c>
     </row>
-    <row r="14" spans="1:88">
+    <row r="14" spans="1:125">
       <c r="A14" s="1" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <v>-0.2621067625474492</v>
@@ -4620,10 +6222,121 @@
       <c r="CJ14">
         <v>-0.2621067625474492</v>
       </c>
+      <c r="CK14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="CL14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="CM14">
+        <v>-0.008967104438251655</v>
+      </c>
+      <c r="CN14">
+        <v>0.01531894273069098</v>
+      </c>
+      <c r="CO14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="CP14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="CQ14">
+        <v>-0.008967104438251655</v>
+      </c>
+      <c r="CR14">
+        <v>0.01531894273069098</v>
+      </c>
+      <c r="CS14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="CT14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="CU14">
+        <v>-0.008967104438251655</v>
+      </c>
+      <c r="CV14">
+        <v>0.01531894273069098</v>
+      </c>
+      <c r="CW14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="CX14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="CY14">
+        <v>-0.008967104438251655</v>
+      </c>
+      <c r="CZ14">
+        <v>0.01531894273069098</v>
+      </c>
+      <c r="DA14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="DB14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="DC14">
+        <v>-0.008967104438251655</v>
+      </c>
+      <c r="DD14">
+        <v>0.01531894273069098</v>
+      </c>
+      <c r="DE14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="DF14">
+        <v>0</v>
+      </c>
+      <c r="DG14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="DH14">
+        <v>-0.3280774230241193</v>
+      </c>
+      <c r="DI14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="DJ14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="DK14">
+        <v>-0.2860511274051265</v>
+      </c>
+      <c r="DL14">
+        <v>-0.2721108627802553</v>
+      </c>
+      <c r="DM14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="DN14">
+        <v>-0.3280774230241193</v>
+      </c>
+      <c r="DO14">
+        <v>-0.2621067625474492</v>
+      </c>
+      <c r="DP14">
+        <v>-0.2860511274051265</v>
+      </c>
+      <c r="DQ14">
+        <v>-0.2721108627802553</v>
+      </c>
+      <c r="DR14">
+        <v>0</v>
+      </c>
+      <c r="DS14">
+        <v>-0.3280774230241193</v>
+      </c>
+      <c r="DT14">
+        <v>-0.2860511274051265</v>
+      </c>
+      <c r="DU14">
+        <v>-0.2721108627802553</v>
+      </c>
     </row>
-    <row r="15" spans="1:88">
+    <row r="15" spans="1:125">
       <c r="A15" s="1" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>-0.2839357521245454</v>
@@ -4886,10 +6599,121 @@
       <c r="CJ15">
         <v>-0.2839357521245454</v>
       </c>
+      <c r="CK15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="CL15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="CM15">
+        <v>-0.009057173599393509</v>
+      </c>
+      <c r="CN15">
+        <v>-0.05228865087037182</v>
+      </c>
+      <c r="CO15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="CP15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="CQ15">
+        <v>-0.009057173599393509</v>
+      </c>
+      <c r="CR15">
+        <v>-0.05228865087037182</v>
+      </c>
+      <c r="CS15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="CT15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="CU15">
+        <v>-0.009057173599393509</v>
+      </c>
+      <c r="CV15">
+        <v>-0.05228865087037182</v>
+      </c>
+      <c r="CW15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="CX15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="CY15">
+        <v>-0.009057173599393509</v>
+      </c>
+      <c r="CZ15">
+        <v>-0.05228865087037182</v>
+      </c>
+      <c r="DA15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="DB15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="DC15">
+        <v>-0.009057173599393509</v>
+      </c>
+      <c r="DD15">
+        <v>-0.05228865087037182</v>
+      </c>
+      <c r="DE15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="DF15">
+        <v>0</v>
+      </c>
+      <c r="DG15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="DH15">
+        <v>-0.2226860305291204</v>
+      </c>
+      <c r="DI15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="DJ15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="DK15">
+        <v>-0.1984495808420385</v>
+      </c>
+      <c r="DL15">
+        <v>-0.282324586049116</v>
+      </c>
+      <c r="DM15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="DN15">
+        <v>-0.2226860305291204</v>
+      </c>
+      <c r="DO15">
+        <v>-0.2839357521245454</v>
+      </c>
+      <c r="DP15">
+        <v>-0.1984495808420385</v>
+      </c>
+      <c r="DQ15">
+        <v>-0.282324586049116</v>
+      </c>
+      <c r="DR15">
+        <v>0</v>
+      </c>
+      <c r="DS15">
+        <v>-0.2226860305291204</v>
+      </c>
+      <c r="DT15">
+        <v>-0.1984495808420385</v>
+      </c>
+      <c r="DU15">
+        <v>-0.282324586049116</v>
+      </c>
     </row>
-    <row r="16" spans="1:88">
+    <row r="16" spans="1:125">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <v>26</v>
@@ -5152,16 +6976,127 @@
       <c r="CJ16">
         <v>26</v>
       </c>
+      <c r="CK16">
+        <v>26</v>
+      </c>
+      <c r="CL16">
+        <v>26</v>
+      </c>
+      <c r="CM16">
+        <v>52</v>
+      </c>
+      <c r="CN16">
+        <v>32</v>
+      </c>
+      <c r="CO16">
+        <v>26</v>
+      </c>
+      <c r="CP16">
+        <v>26</v>
+      </c>
+      <c r="CQ16">
+        <v>52</v>
+      </c>
+      <c r="CR16">
+        <v>32</v>
+      </c>
+      <c r="CS16">
+        <v>26</v>
+      </c>
+      <c r="CT16">
+        <v>26</v>
+      </c>
+      <c r="CU16">
+        <v>52</v>
+      </c>
+      <c r="CV16">
+        <v>32</v>
+      </c>
+      <c r="CW16">
+        <v>26</v>
+      </c>
+      <c r="CX16">
+        <v>26</v>
+      </c>
+      <c r="CY16">
+        <v>52</v>
+      </c>
+      <c r="CZ16">
+        <v>32</v>
+      </c>
+      <c r="DA16">
+        <v>26</v>
+      </c>
+      <c r="DB16">
+        <v>26</v>
+      </c>
+      <c r="DC16">
+        <v>52</v>
+      </c>
+      <c r="DD16">
+        <v>32</v>
+      </c>
+      <c r="DE16">
+        <v>26</v>
+      </c>
+      <c r="DF16">
+        <v>0</v>
+      </c>
+      <c r="DG16">
+        <v>26</v>
+      </c>
+      <c r="DH16">
+        <v>26</v>
+      </c>
+      <c r="DI16">
+        <v>26</v>
+      </c>
+      <c r="DJ16">
+        <v>26</v>
+      </c>
+      <c r="DK16">
+        <v>26</v>
+      </c>
+      <c r="DL16">
+        <v>26</v>
+      </c>
+      <c r="DM16">
+        <v>26</v>
+      </c>
+      <c r="DN16">
+        <v>26</v>
+      </c>
+      <c r="DO16">
+        <v>26</v>
+      </c>
+      <c r="DP16">
+        <v>26</v>
+      </c>
+      <c r="DQ16">
+        <v>26</v>
+      </c>
+      <c r="DR16">
+        <v>0</v>
+      </c>
+      <c r="DS16">
+        <v>26</v>
+      </c>
+      <c r="DT16">
+        <v>26</v>
+      </c>
+      <c r="DU16">
+        <v>26</v>
+      </c>
     </row>
-    <row r="17" spans="1:88">
+    <row r="17" spans="1:125">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <v>-0.1255614861090418</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>-0.1255614861090418</v>
@@ -5191,7 +7126,7 @@
         <v>-0.1255614861090418</v>
       </c>
       <c r="M17" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="N17">
         <v>-0.1255614861090418</v>
@@ -5221,7 +7156,7 @@
         <v>-0.1255614861090418</v>
       </c>
       <c r="W17" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="X17">
         <v>-0.1255614861090418</v>
@@ -5269,7 +7204,7 @@
         <v>0.6378532405503524</v>
       </c>
       <c r="AM17" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="AN17">
         <v>1.199551367688148</v>
@@ -5418,10 +7353,121 @@
       <c r="CJ17">
         <v>-0.1255614861090418</v>
       </c>
+      <c r="CK17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="CL17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="CM17">
+        <v>-0.3297938120608429</v>
+      </c>
+      <c r="CN17">
+        <v>0.6378532405503524</v>
+      </c>
+      <c r="CO17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="CP17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="CQ17">
+        <v>-0.3297938120608429</v>
+      </c>
+      <c r="CR17">
+        <v>0.6378532405503524</v>
+      </c>
+      <c r="CS17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="CT17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="CU17">
+        <v>-0.3297938120608429</v>
+      </c>
+      <c r="CV17">
+        <v>0.6378532405503524</v>
+      </c>
+      <c r="CW17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="CX17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="CY17">
+        <v>-0.3297938120608429</v>
+      </c>
+      <c r="CZ17">
+        <v>0.6378532405503524</v>
+      </c>
+      <c r="DA17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="DB17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="DC17">
+        <v>-0.3297938120608429</v>
+      </c>
+      <c r="DD17">
+        <v>0.6378532405503524</v>
+      </c>
+      <c r="DE17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DG17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="DH17">
+        <v>1.199551367688148</v>
+      </c>
+      <c r="DI17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="DJ17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="DK17">
+        <v>1.642848841177232</v>
+      </c>
+      <c r="DL17">
+        <v>-0.1207400652727684</v>
+      </c>
+      <c r="DM17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="DN17">
+        <v>1.199551367688148</v>
+      </c>
+      <c r="DO17">
+        <v>-0.1255614861090418</v>
+      </c>
+      <c r="DP17">
+        <v>1.642848841177232</v>
+      </c>
+      <c r="DQ17">
+        <v>-0.1207400652727684</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>150</v>
+      </c>
+      <c r="DS17">
+        <v>1.199551367688148</v>
+      </c>
+      <c r="DT17">
+        <v>1.642848841177232</v>
+      </c>
+      <c r="DU17">
+        <v>-0.1207400652727684</v>
+      </c>
     </row>
-    <row r="18" spans="1:88">
+    <row r="18" spans="1:125">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>-0.008610888894884747</v>
@@ -5684,10 +7730,121 @@
       <c r="CJ18">
         <v>-0.008610888894884747</v>
       </c>
+      <c r="CK18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="CL18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="CM18">
+        <v>0.02201146845155493</v>
+      </c>
+      <c r="CN18">
+        <v>0.06772536167417434</v>
+      </c>
+      <c r="CO18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="CP18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="CQ18">
+        <v>0.02201146845155493</v>
+      </c>
+      <c r="CR18">
+        <v>0.06772536167417434</v>
+      </c>
+      <c r="CS18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="CT18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="CU18">
+        <v>0.02201146845155493</v>
+      </c>
+      <c r="CV18">
+        <v>0.06772536167417434</v>
+      </c>
+      <c r="CW18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="CX18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="CY18">
+        <v>0.02201146845155493</v>
+      </c>
+      <c r="CZ18">
+        <v>0.06772536167417434</v>
+      </c>
+      <c r="DA18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="DB18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="DC18">
+        <v>0.02201146845155493</v>
+      </c>
+      <c r="DD18">
+        <v>0.06772536167417434</v>
+      </c>
+      <c r="DE18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="DF18">
+        <v>0</v>
+      </c>
+      <c r="DG18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="DH18">
+        <v>0.4545636410857554</v>
+      </c>
+      <c r="DI18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="DJ18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="DK18">
+        <v>0.7333290986854444</v>
+      </c>
+      <c r="DL18">
+        <v>-0.006681075946322976</v>
+      </c>
+      <c r="DM18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="DN18">
+        <v>0.4545636410857554</v>
+      </c>
+      <c r="DO18">
+        <v>-0.008610888894884747</v>
+      </c>
+      <c r="DP18">
+        <v>0.7333290986854444</v>
+      </c>
+      <c r="DQ18">
+        <v>-0.006681075946322976</v>
+      </c>
+      <c r="DR18">
+        <v>0</v>
+      </c>
+      <c r="DS18">
+        <v>0.4545636410857554</v>
+      </c>
+      <c r="DT18">
+        <v>0.7333290986854444</v>
+      </c>
+      <c r="DU18">
+        <v>-0.006681075946322976</v>
+      </c>
     </row>
-    <row r="19" spans="1:88">
+    <row r="19" spans="1:125">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>-0.1217584239050636</v>
@@ -5950,10 +8107,121 @@
       <c r="CJ19">
         <v>-0.1217584239050636</v>
       </c>
+      <c r="CK19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="CL19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="CM19">
+        <v>-0.01382015528331659</v>
+      </c>
+      <c r="CN19">
+        <v>-0.05630204298647068</v>
+      </c>
+      <c r="CO19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="CP19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="CQ19">
+        <v>-0.01382015528331659</v>
+      </c>
+      <c r="CR19">
+        <v>-0.05630204298647068</v>
+      </c>
+      <c r="CS19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="CT19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="CU19">
+        <v>-0.01382015528331659</v>
+      </c>
+      <c r="CV19">
+        <v>-0.05630204298647068</v>
+      </c>
+      <c r="CW19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="CX19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="CY19">
+        <v>-0.01382015528331659</v>
+      </c>
+      <c r="CZ19">
+        <v>-0.05630204298647068</v>
+      </c>
+      <c r="DA19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="DB19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="DC19">
+        <v>-0.01382015528331659</v>
+      </c>
+      <c r="DD19">
+        <v>-0.05630204298647068</v>
+      </c>
+      <c r="DE19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="DF19">
+        <v>0</v>
+      </c>
+      <c r="DG19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="DH19">
+        <v>-0.2832504746088916</v>
+      </c>
+      <c r="DI19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="DJ19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="DK19">
+        <v>-0.2900513755261889</v>
+      </c>
+      <c r="DL19">
+        <v>-0.1219291205045455</v>
+      </c>
+      <c r="DM19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="DN19">
+        <v>-0.2832504746088916</v>
+      </c>
+      <c r="DO19">
+        <v>-0.1217584239050636</v>
+      </c>
+      <c r="DP19">
+        <v>-0.2900513755261889</v>
+      </c>
+      <c r="DQ19">
+        <v>-0.1219291205045455</v>
+      </c>
+      <c r="DR19">
+        <v>0</v>
+      </c>
+      <c r="DS19">
+        <v>-0.2832504746088916</v>
+      </c>
+      <c r="DT19">
+        <v>-0.2900513755261889</v>
+      </c>
+      <c r="DU19">
+        <v>-0.1219291205045455</v>
+      </c>
     </row>
-    <row r="20" spans="1:88">
+    <row r="20" spans="1:125">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -6216,16 +8484,127 @@
       <c r="CJ20">
         <v>8</v>
       </c>
+      <c r="CK20">
+        <v>8</v>
+      </c>
+      <c r="CL20">
+        <v>8</v>
+      </c>
+      <c r="CM20">
+        <v>12</v>
+      </c>
+      <c r="CN20">
+        <v>10</v>
+      </c>
+      <c r="CO20">
+        <v>8</v>
+      </c>
+      <c r="CP20">
+        <v>8</v>
+      </c>
+      <c r="CQ20">
+        <v>12</v>
+      </c>
+      <c r="CR20">
+        <v>10</v>
+      </c>
+      <c r="CS20">
+        <v>8</v>
+      </c>
+      <c r="CT20">
+        <v>8</v>
+      </c>
+      <c r="CU20">
+        <v>12</v>
+      </c>
+      <c r="CV20">
+        <v>10</v>
+      </c>
+      <c r="CW20">
+        <v>8</v>
+      </c>
+      <c r="CX20">
+        <v>8</v>
+      </c>
+      <c r="CY20">
+        <v>12</v>
+      </c>
+      <c r="CZ20">
+        <v>10</v>
+      </c>
+      <c r="DA20">
+        <v>8</v>
+      </c>
+      <c r="DB20">
+        <v>8</v>
+      </c>
+      <c r="DC20">
+        <v>12</v>
+      </c>
+      <c r="DD20">
+        <v>10</v>
+      </c>
+      <c r="DE20">
+        <v>8</v>
+      </c>
+      <c r="DF20">
+        <v>0</v>
+      </c>
+      <c r="DG20">
+        <v>8</v>
+      </c>
+      <c r="DH20">
+        <v>6</v>
+      </c>
+      <c r="DI20">
+        <v>8</v>
+      </c>
+      <c r="DJ20">
+        <v>8</v>
+      </c>
+      <c r="DK20">
+        <v>6</v>
+      </c>
+      <c r="DL20">
+        <v>8</v>
+      </c>
+      <c r="DM20">
+        <v>8</v>
+      </c>
+      <c r="DN20">
+        <v>6</v>
+      </c>
+      <c r="DO20">
+        <v>8</v>
+      </c>
+      <c r="DP20">
+        <v>6</v>
+      </c>
+      <c r="DQ20">
+        <v>8</v>
+      </c>
+      <c r="DR20">
+        <v>0</v>
+      </c>
+      <c r="DS20">
+        <v>6</v>
+      </c>
+      <c r="DT20">
+        <v>6</v>
+      </c>
+      <c r="DU20">
+        <v>8</v>
+      </c>
     </row>
-    <row r="21" spans="1:88">
+    <row r="21" spans="1:125">
       <c r="A21" s="1" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <v>-0.2262611134925771</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D21">
         <v>-0.2262611134925771</v>
@@ -6255,7 +8634,7 @@
         <v>-0.2262611134925771</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="N21">
         <v>-0.2262611134925771</v>
@@ -6285,7 +8664,7 @@
         <v>-0.2262611134925771</v>
       </c>
       <c r="W21" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="X21">
         <v>-0.2262611134925771</v>
@@ -6333,7 +8712,7 @@
         <v>-0.4958840282271377</v>
       </c>
       <c r="AM21" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="AN21">
         <v>-1.860688586284685</v>
@@ -6482,10 +8861,121 @@
       <c r="CJ21">
         <v>-0.2262611134925771</v>
       </c>
+      <c r="CK21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="CL21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="CM21">
+        <v>-4.832014371221628</v>
+      </c>
+      <c r="CN21">
+        <v>-0.4958840282271377</v>
+      </c>
+      <c r="CO21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="CP21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="CQ21">
+        <v>-4.832014371221628</v>
+      </c>
+      <c r="CR21">
+        <v>-0.4958840282271377</v>
+      </c>
+      <c r="CS21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="CT21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="CU21">
+        <v>-4.832014371221628</v>
+      </c>
+      <c r="CV21">
+        <v>-0.4958840282271377</v>
+      </c>
+      <c r="CW21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="CX21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="CY21">
+        <v>-4.832014371221628</v>
+      </c>
+      <c r="CZ21">
+        <v>-0.4958840282271377</v>
+      </c>
+      <c r="DA21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="DB21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="DC21">
+        <v>-4.832014371221628</v>
+      </c>
+      <c r="DD21">
+        <v>-0.4958840282271377</v>
+      </c>
+      <c r="DE21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="DF21" t="s">
+        <v>150</v>
+      </c>
+      <c r="DG21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="DH21">
+        <v>-1.860688586284685</v>
+      </c>
+      <c r="DI21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="DJ21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="DK21">
+        <v>-1.894598096940476</v>
+      </c>
+      <c r="DL21">
+        <v>-0.240968098875644</v>
+      </c>
+      <c r="DM21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="DN21">
+        <v>-1.860688586284685</v>
+      </c>
+      <c r="DO21">
+        <v>-0.2262611134925771</v>
+      </c>
+      <c r="DP21">
+        <v>-1.894598096940476</v>
+      </c>
+      <c r="DQ21">
+        <v>-0.240968098875644</v>
+      </c>
+      <c r="DR21" t="s">
+        <v>150</v>
+      </c>
+      <c r="DS21">
+        <v>-1.860688586284685</v>
+      </c>
+      <c r="DT21">
+        <v>-1.894598096940476</v>
+      </c>
+      <c r="DU21">
+        <v>-0.240968098875644</v>
+      </c>
     </row>
-    <row r="22" spans="1:88">
+    <row r="22" spans="1:125">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>-0.007448819959063087</v>
@@ -6748,10 +9238,121 @@
       <c r="CJ22">
         <v>-0.007448819959063087</v>
       </c>
+      <c r="CK22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="CL22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="CM22">
+        <v>-0.01382015528331662</v>
+      </c>
+      <c r="CN22">
+        <v>-0.007768107300025197</v>
+      </c>
+      <c r="CO22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="CP22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="CQ22">
+        <v>-0.01382015528331662</v>
+      </c>
+      <c r="CR22">
+        <v>-0.007768107300025197</v>
+      </c>
+      <c r="CS22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="CT22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="CU22">
+        <v>-0.01382015528331662</v>
+      </c>
+      <c r="CV22">
+        <v>-0.007768107300025197</v>
+      </c>
+      <c r="CW22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="CX22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="CY22">
+        <v>-0.01382015528331662</v>
+      </c>
+      <c r="CZ22">
+        <v>-0.007768107300025197</v>
+      </c>
+      <c r="DA22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="DB22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="DC22">
+        <v>-0.01382015528331662</v>
+      </c>
+      <c r="DD22">
+        <v>-0.007768107300025197</v>
+      </c>
+      <c r="DE22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="DF22">
+        <v>0</v>
+      </c>
+      <c r="DG22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="DH22">
+        <v>-0.2025078325841748</v>
+      </c>
+      <c r="DI22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="DJ22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="DK22">
+        <v>-0.2144419824299459</v>
+      </c>
+      <c r="DL22">
+        <v>-0.008202332472157755</v>
+      </c>
+      <c r="DM22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="DN22">
+        <v>-0.2025078325841748</v>
+      </c>
+      <c r="DO22">
+        <v>-0.007448819959063087</v>
+      </c>
+      <c r="DP22">
+        <v>-0.2144419824299459</v>
+      </c>
+      <c r="DQ22">
+        <v>-0.008202332472157755</v>
+      </c>
+      <c r="DR22">
+        <v>0</v>
+      </c>
+      <c r="DS22">
+        <v>-0.2025078325841748</v>
+      </c>
+      <c r="DT22">
+        <v>-0.2144419824299459</v>
+      </c>
+      <c r="DU22">
+        <v>-0.008202332472157755</v>
+      </c>
     </row>
-    <row r="23" spans="1:88">
+    <row r="23" spans="1:125">
       <c r="A23" s="1" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="B23">
         <v>-0.09433012961310638</v>
@@ -7014,10 +9615,121 @@
       <c r="CJ23">
         <v>-0.09433012961310638</v>
       </c>
+      <c r="CK23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="CL23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="CM23">
+        <v>-0.04459652517226298</v>
+      </c>
+      <c r="CN23">
+        <v>-0.0850860719093155</v>
+      </c>
+      <c r="CO23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="CP23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="CQ23">
+        <v>-0.04459652517226298</v>
+      </c>
+      <c r="CR23">
+        <v>-0.0850860719093155</v>
+      </c>
+      <c r="CS23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="CT23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="CU23">
+        <v>-0.04459652517226298</v>
+      </c>
+      <c r="CV23">
+        <v>-0.0850860719093155</v>
+      </c>
+      <c r="CW23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="CX23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="CY23">
+        <v>-0.04459652517226298</v>
+      </c>
+      <c r="CZ23">
+        <v>-0.0850860719093155</v>
+      </c>
+      <c r="DA23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="DB23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="DC23">
+        <v>-0.04459652517226298</v>
+      </c>
+      <c r="DD23">
+        <v>-0.0850860719093155</v>
+      </c>
+      <c r="DE23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="DF23">
+        <v>0</v>
+      </c>
+      <c r="DG23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="DH23">
+        <v>-0.4397884257405718</v>
+      </c>
+      <c r="DI23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="DJ23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="DK23">
+        <v>-0.4321693436958964</v>
+      </c>
+      <c r="DL23">
+        <v>-0.2747983729501937</v>
+      </c>
+      <c r="DM23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="DN23">
+        <v>-0.4397884257405718</v>
+      </c>
+      <c r="DO23">
+        <v>-0.09433012961310638</v>
+      </c>
+      <c r="DP23">
+        <v>-0.4321693436958964</v>
+      </c>
+      <c r="DQ23">
+        <v>-0.2747983729501937</v>
+      </c>
+      <c r="DR23">
+        <v>0</v>
+      </c>
+      <c r="DS23">
+        <v>-0.4397884257405718</v>
+      </c>
+      <c r="DT23">
+        <v>-0.4321693436958964</v>
+      </c>
+      <c r="DU23">
+        <v>-0.2747983729501937</v>
+      </c>
     </row>
-    <row r="24" spans="1:88">
+    <row r="24" spans="1:125">
       <c r="A24" s="1" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B24">
         <v>63</v>
@@ -7280,16 +9992,127 @@
       <c r="CJ24">
         <v>63</v>
       </c>
+      <c r="CK24">
+        <v>63</v>
+      </c>
+      <c r="CL24">
+        <v>63</v>
+      </c>
+      <c r="CM24">
+        <v>117</v>
+      </c>
+      <c r="CN24">
+        <v>67</v>
+      </c>
+      <c r="CO24">
+        <v>63</v>
+      </c>
+      <c r="CP24">
+        <v>63</v>
+      </c>
+      <c r="CQ24">
+        <v>117</v>
+      </c>
+      <c r="CR24">
+        <v>67</v>
+      </c>
+      <c r="CS24">
+        <v>63</v>
+      </c>
+      <c r="CT24">
+        <v>63</v>
+      </c>
+      <c r="CU24">
+        <v>117</v>
+      </c>
+      <c r="CV24">
+        <v>67</v>
+      </c>
+      <c r="CW24">
+        <v>63</v>
+      </c>
+      <c r="CX24">
+        <v>63</v>
+      </c>
+      <c r="CY24">
+        <v>117</v>
+      </c>
+      <c r="CZ24">
+        <v>67</v>
+      </c>
+      <c r="DA24">
+        <v>63</v>
+      </c>
+      <c r="DB24">
+        <v>63</v>
+      </c>
+      <c r="DC24">
+        <v>117</v>
+      </c>
+      <c r="DD24">
+        <v>67</v>
+      </c>
+      <c r="DE24">
+        <v>63</v>
+      </c>
+      <c r="DF24">
+        <v>0</v>
+      </c>
+      <c r="DG24">
+        <v>63</v>
+      </c>
+      <c r="DH24">
+        <v>59</v>
+      </c>
+      <c r="DI24">
+        <v>63</v>
+      </c>
+      <c r="DJ24">
+        <v>63</v>
+      </c>
+      <c r="DK24">
+        <v>60</v>
+      </c>
+      <c r="DL24">
+        <v>62</v>
+      </c>
+      <c r="DM24">
+        <v>63</v>
+      </c>
+      <c r="DN24">
+        <v>59</v>
+      </c>
+      <c r="DO24">
+        <v>63</v>
+      </c>
+      <c r="DP24">
+        <v>60</v>
+      </c>
+      <c r="DQ24">
+        <v>62</v>
+      </c>
+      <c r="DR24">
+        <v>0</v>
+      </c>
+      <c r="DS24">
+        <v>59</v>
+      </c>
+      <c r="DT24">
+        <v>60</v>
+      </c>
+      <c r="DU24">
+        <v>62</v>
+      </c>
     </row>
-    <row r="25" spans="1:88">
+    <row r="25" spans="1:125">
       <c r="A25" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <v>2.559728426493771</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="D25">
         <v>2.559728426493771</v>
@@ -7319,7 +10142,7 @@
         <v>2.559728426493771</v>
       </c>
       <c r="M25" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="N25">
         <v>2.559728426493771</v>
@@ -7349,7 +10172,7 @@
         <v>2.559728426493771</v>
       </c>
       <c r="W25" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="X25">
         <v>2.559728426493771</v>
@@ -7397,7 +10220,7 @@
         <v>1.758945796061697</v>
       </c>
       <c r="AM25" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="AN25">
         <v>0.993216392604385</v>
@@ -7546,10 +10369,121 @@
       <c r="CJ25">
         <v>2.559728426493771</v>
       </c>
+      <c r="CK25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="CL25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="CM25">
+        <v>-0.6502058977766597</v>
+      </c>
+      <c r="CN25">
+        <v>1.758945796061697</v>
+      </c>
+      <c r="CO25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="CP25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="CQ25">
+        <v>-0.6502058977766597</v>
+      </c>
+      <c r="CR25">
+        <v>1.758945796061697</v>
+      </c>
+      <c r="CS25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="CT25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="CU25">
+        <v>-0.6502058977766597</v>
+      </c>
+      <c r="CV25">
+        <v>1.758945796061697</v>
+      </c>
+      <c r="CW25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="CX25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="CY25">
+        <v>-0.6502058977766597</v>
+      </c>
+      <c r="CZ25">
+        <v>1.758945796061697</v>
+      </c>
+      <c r="DA25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="DB25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="DC25">
+        <v>-0.6502058977766597</v>
+      </c>
+      <c r="DD25">
+        <v>1.758945796061697</v>
+      </c>
+      <c r="DE25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="DF25" t="s">
+        <v>150</v>
+      </c>
+      <c r="DG25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="DH25">
+        <v>0.993216392604385</v>
+      </c>
+      <c r="DI25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="DJ25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="DK25">
+        <v>0.6686518699394507</v>
+      </c>
+      <c r="DL25">
+        <v>1.741535245165312</v>
+      </c>
+      <c r="DM25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="DN25">
+        <v>0.993216392604385</v>
+      </c>
+      <c r="DO25">
+        <v>2.559728426493771</v>
+      </c>
+      <c r="DP25">
+        <v>0.6686518699394507</v>
+      </c>
+      <c r="DQ25">
+        <v>1.741535245165312</v>
+      </c>
+      <c r="DR25" t="s">
+        <v>150</v>
+      </c>
+      <c r="DS25">
+        <v>0.993216392604385</v>
+      </c>
+      <c r="DT25">
+        <v>0.6686518699394507</v>
+      </c>
+      <c r="DU25">
+        <v>1.741535245165312</v>
+      </c>
     </row>
-    <row r="26" spans="1:88">
+    <row r="26" spans="1:125">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <v>0.8385050000000001</v>
@@ -7811,6 +10745,117 @@
       </c>
       <c r="CJ26">
         <v>0.8385050000000001</v>
+      </c>
+      <c r="CK26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="CL26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="CM26">
+        <v>0.0006489999999998997</v>
+      </c>
+      <c r="CN26">
+        <v>0.4683010000000001</v>
+      </c>
+      <c r="CO26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="CP26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="CQ26">
+        <v>0.0006489999999998997</v>
+      </c>
+      <c r="CR26">
+        <v>0.4683010000000001</v>
+      </c>
+      <c r="CS26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="CT26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="CU26">
+        <v>0.0006489999999998997</v>
+      </c>
+      <c r="CV26">
+        <v>0.4683010000000001</v>
+      </c>
+      <c r="CW26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="CX26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="CY26">
+        <v>0.0006489999999998997</v>
+      </c>
+      <c r="CZ26">
+        <v>0.4683010000000001</v>
+      </c>
+      <c r="DA26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="DB26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="DC26">
+        <v>0.0006489999999998997</v>
+      </c>
+      <c r="DD26">
+        <v>0.4683010000000001</v>
+      </c>
+      <c r="DE26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="DF26">
+        <v>0</v>
+      </c>
+      <c r="DG26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="DH26">
+        <v>0.6655</v>
+      </c>
+      <c r="DI26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="DJ26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="DK26">
+        <v>0.4174599999999999</v>
+      </c>
+      <c r="DL26">
+        <v>0.7315929999999999</v>
+      </c>
+      <c r="DM26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="DN26">
+        <v>0.6655</v>
+      </c>
+      <c r="DO26">
+        <v>0.8385050000000001</v>
+      </c>
+      <c r="DP26">
+        <v>0.4174599999999999</v>
+      </c>
+      <c r="DQ26">
+        <v>0.7315929999999999</v>
+      </c>
+      <c r="DR26">
+        <v>0</v>
+      </c>
+      <c r="DS26">
+        <v>0.6655</v>
+      </c>
+      <c r="DT26">
+        <v>0.4174599999999999</v>
+      </c>
+      <c r="DU26">
+        <v>0.7315929999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7820,18 +10865,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CK25"/>
+  <dimension ref="A1:DV25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:89">
+    <row r="1" spans="1:126">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -7873,7 +10918,7 @@
         <v>12</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>14</v>
@@ -7882,7 +10927,7 @@
         <v>15</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>17</v>
@@ -7909,7 +10954,7 @@
         <v>24</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>26</v>
@@ -7933,7 +10978,7 @@
         <v>32</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>34</v>
@@ -7996,7 +11041,7 @@
         <v>53</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="BG1" s="1" t="s">
         <v>55</v>
@@ -8020,10 +11065,10 @@
         <v>61</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="BP1" s="1" t="s">
         <v>64</v>
@@ -8035,13 +11080,13 @@
         <v>66</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>68</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="BV1" s="1" t="s">
         <v>70</v>
@@ -8074,7 +11119,7 @@
         <v>79</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>81</v>
@@ -8086,1360 +11131,2026 @@
         <v>83</v>
       </c>
       <c r="CJ1" s="1" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="CL1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="DI1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DS1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DT1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DU1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DV1" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="2" spans="1:89">
+    <row r="2" spans="1:126">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="E2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="H2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="I2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="J2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="O2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="Q2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="R2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="S2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="T2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="U2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="V2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="W2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="X2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="Y2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="Z2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="AA2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AB2" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AC2" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="AD2" t="s">
-        <v>118</v>
+        <v>155</v>
       </c>
       <c r="AE2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="AF2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="AG2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="AI2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AJ2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AK2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="AL2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="AM2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="AN2" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="AO2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="AP2" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="AQ2" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="AR2" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="AS2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="AT2" t="s">
-        <v>131</v>
+        <v>168</v>
       </c>
       <c r="AU2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="AV2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="AW2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="AX2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="AY2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="AZ2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="BA2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="BB2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="BC2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="BD2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="BE2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="BF2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="BG2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="BH2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="BI2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BJ2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="BK2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="BL2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="BM2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="BN2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="BO2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="BP2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="BQ2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="BR2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="BS2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="BT2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="BU2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="BV2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="BW2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="BX2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="BY2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="BZ2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="CA2" t="s">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="CB2" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="CC2" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="CD2" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="CE2" t="s">
-        <v>126</v>
+        <v>163</v>
       </c>
       <c r="CF2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="CG2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="CH2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="CI2" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="CJ2" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="CK2" t="s">
-        <v>122</v>
+        <v>159</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>157</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CY2" t="s">
+        <v>148</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>157</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>148</v>
+      </c>
+      <c r="DG2" t="s">
+        <v>149</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>152</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>153</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>154</v>
+      </c>
+      <c r="DM2" t="s">
+        <v>155</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>151</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>158</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>159</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>160</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>161</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>165</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>173</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:89">
+    <row r="3" spans="1:126">
       <c r="A3" s="1" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="F3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="G3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="I3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="J3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="K3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="M3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="N3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="O3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="Q3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="R3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="S3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="T3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="U3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="V3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="W3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="X3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="Y3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="Z3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AA3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AB3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AC3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AD3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AE3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AF3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AG3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AH3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AI3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AJ3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AK3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AL3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AM3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AN3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AO3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AP3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AQ3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AR3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AS3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AT3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AU3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AV3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AW3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AX3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AY3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="AZ3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BA3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BB3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BC3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BD3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BE3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BF3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BG3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BH3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BI3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BJ3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BK3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BL3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BM3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BN3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BO3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BP3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BQ3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BR3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BS3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BT3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BU3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BV3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BW3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BX3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BY3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="BZ3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CA3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CB3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CC3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CD3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CE3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CF3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CG3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CH3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CI3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CJ3" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="CK3" t="s">
-        <v>170</v>
+        <v>223</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>223</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>223</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:89">
+    <row r="4" spans="1:126">
       <c r="A4" s="1" t="s">
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="G4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="H4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="J4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="L4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="M4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="N4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="O4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="Q4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="R4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="S4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="T4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="U4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="V4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="W4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="X4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="Y4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="Z4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AA4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AB4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AC4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AD4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AE4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AF4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AG4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AH4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AI4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AJ4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AK4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AL4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AM4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AN4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AO4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AP4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AQ4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AR4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AS4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AT4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AU4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AV4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AW4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AX4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AY4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="AZ4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BA4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BB4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BC4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BD4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BE4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BF4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BG4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BH4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BI4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BJ4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BK4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BL4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BM4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BN4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BO4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BP4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BQ4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BR4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BS4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BT4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BU4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BV4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BW4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BX4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BY4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="BZ4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CA4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CB4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CC4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CD4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CE4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CF4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CG4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CH4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CI4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CJ4" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="CK4" t="s">
-        <v>171</v>
+        <v>224</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>224</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DC4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DM4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>224</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:89">
+    <row r="5" spans="1:126">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="I5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="J5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="K5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="L5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="N5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="O5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="Q5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="R5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="S5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="T5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="U5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="V5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="W5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="X5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="Y5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="Z5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AA5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AB5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AC5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AD5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AE5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AF5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AG5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AH5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AI5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AJ5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AK5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AL5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AM5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AN5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AO5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AP5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AQ5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AR5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AS5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AT5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AU5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AV5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AW5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AX5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AY5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="AZ5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BA5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BB5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BC5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BD5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BE5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BF5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BG5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BH5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BI5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BJ5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BK5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BL5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BM5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BN5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BO5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BP5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BQ5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BR5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BS5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BT5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BU5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BV5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BW5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BX5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BY5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="BZ5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CA5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CB5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CC5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CD5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CE5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CF5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CG5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CH5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CI5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CJ5" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="CK5" t="s">
-        <v>172</v>
+        <v>225</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>225</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>225</v>
       </c>
     </row>
-    <row r="6" spans="1:89">
+    <row r="6" spans="1:126">
       <c r="A6" s="1" t="s">
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="G6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="I6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="J6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="K6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="L6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="M6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="N6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="O6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="Q6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="R6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="S6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="T6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="U6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="V6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="W6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="X6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="Y6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="Z6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AA6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AB6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AC6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AD6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AE6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AF6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AG6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AH6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AI6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AJ6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AK6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AL6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AM6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AN6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AO6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AP6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AQ6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AR6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AS6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AT6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AU6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AV6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AW6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AX6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AY6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="AZ6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BA6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BB6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BC6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BD6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BE6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BF6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BG6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BH6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BI6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BJ6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BK6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BL6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BM6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BN6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BO6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BP6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BQ6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BR6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BS6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BT6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BU6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BV6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BW6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BX6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BY6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="BZ6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CA6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CB6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CC6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CD6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CE6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CF6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CG6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CH6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CI6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CJ6" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="CK6" t="s">
-        <v>173</v>
+        <v>226</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CY6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DC6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>226</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:89">
+    <row r="7" spans="1:126">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="B7">
         <v>10000000000</v>
@@ -9705,10 +13416,121 @@
       <c r="CK7">
         <v>10000000000</v>
       </c>
+      <c r="CL7">
+        <v>10000000000</v>
+      </c>
+      <c r="CM7">
+        <v>10000000000</v>
+      </c>
+      <c r="CN7">
+        <v>10000000000</v>
+      </c>
+      <c r="CO7">
+        <v>10000000000</v>
+      </c>
+      <c r="CP7">
+        <v>10000000000</v>
+      </c>
+      <c r="CQ7">
+        <v>10000000000</v>
+      </c>
+      <c r="CR7">
+        <v>10000000000</v>
+      </c>
+      <c r="CS7">
+        <v>10000000000</v>
+      </c>
+      <c r="CT7">
+        <v>10000000000</v>
+      </c>
+      <c r="CU7">
+        <v>10000000000</v>
+      </c>
+      <c r="CV7">
+        <v>10000000000</v>
+      </c>
+      <c r="CW7">
+        <v>10000000000</v>
+      </c>
+      <c r="CX7">
+        <v>10000000000</v>
+      </c>
+      <c r="CY7">
+        <v>10000000000</v>
+      </c>
+      <c r="CZ7">
+        <v>10000000000</v>
+      </c>
+      <c r="DA7">
+        <v>10000000000</v>
+      </c>
+      <c r="DB7">
+        <v>10000000000</v>
+      </c>
+      <c r="DC7">
+        <v>10000000000</v>
+      </c>
+      <c r="DD7">
+        <v>10000000000</v>
+      </c>
+      <c r="DE7">
+        <v>10000000000</v>
+      </c>
+      <c r="DF7">
+        <v>10000000000</v>
+      </c>
+      <c r="DG7">
+        <v>10000000000</v>
+      </c>
+      <c r="DH7">
+        <v>10000000000</v>
+      </c>
+      <c r="DI7">
+        <v>10000000000</v>
+      </c>
+      <c r="DJ7">
+        <v>10000000000</v>
+      </c>
+      <c r="DK7">
+        <v>10000000000</v>
+      </c>
+      <c r="DL7">
+        <v>10000000000</v>
+      </c>
+      <c r="DM7">
+        <v>10000000000</v>
+      </c>
+      <c r="DN7">
+        <v>10000000000</v>
+      </c>
+      <c r="DO7">
+        <v>10000000000</v>
+      </c>
+      <c r="DP7">
+        <v>10000000000</v>
+      </c>
+      <c r="DQ7">
+        <v>10000000000</v>
+      </c>
+      <c r="DR7">
+        <v>10000000000</v>
+      </c>
+      <c r="DS7">
+        <v>10000000000</v>
+      </c>
+      <c r="DT7">
+        <v>10000000000</v>
+      </c>
+      <c r="DU7">
+        <v>10000000000</v>
+      </c>
+      <c r="DV7">
+        <v>10000000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:89">
+    <row r="8" spans="1:126">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>205</v>
       </c>
       <c r="B8">
         <v>0.042</v>
@@ -9974,10 +13796,121 @@
       <c r="CK8">
         <v>0.042</v>
       </c>
+      <c r="CL8">
+        <v>0.042</v>
+      </c>
+      <c r="CM8">
+        <v>0.042</v>
+      </c>
+      <c r="CN8">
+        <v>-0.037</v>
+      </c>
+      <c r="CO8">
+        <v>0.065</v>
+      </c>
+      <c r="CP8">
+        <v>0.042</v>
+      </c>
+      <c r="CQ8">
+        <v>0.042</v>
+      </c>
+      <c r="CR8">
+        <v>-0.037</v>
+      </c>
+      <c r="CS8">
+        <v>0.065</v>
+      </c>
+      <c r="CT8">
+        <v>0.042</v>
+      </c>
+      <c r="CU8">
+        <v>0.042</v>
+      </c>
+      <c r="CV8">
+        <v>-0.037</v>
+      </c>
+      <c r="CW8">
+        <v>0.065</v>
+      </c>
+      <c r="CX8">
+        <v>0.042</v>
+      </c>
+      <c r="CY8">
+        <v>0.042</v>
+      </c>
+      <c r="CZ8">
+        <v>-0.037</v>
+      </c>
+      <c r="DA8">
+        <v>0.065</v>
+      </c>
+      <c r="DB8">
+        <v>0.042</v>
+      </c>
+      <c r="DC8">
+        <v>0.042</v>
+      </c>
+      <c r="DD8">
+        <v>-0.037</v>
+      </c>
+      <c r="DE8">
+        <v>0.065</v>
+      </c>
+      <c r="DF8">
+        <v>0.042</v>
+      </c>
+      <c r="DG8">
+        <v>-0.035</v>
+      </c>
+      <c r="DH8">
+        <v>0.042</v>
+      </c>
+      <c r="DI8">
+        <v>0.003</v>
+      </c>
+      <c r="DJ8">
+        <v>0.042</v>
+      </c>
+      <c r="DK8">
+        <v>0.042</v>
+      </c>
+      <c r="DL8">
+        <v>0.114</v>
+      </c>
+      <c r="DM8">
+        <v>0.04</v>
+      </c>
+      <c r="DN8">
+        <v>0.042</v>
+      </c>
+      <c r="DO8">
+        <v>0.003</v>
+      </c>
+      <c r="DP8">
+        <v>0.042</v>
+      </c>
+      <c r="DQ8">
+        <v>0.114</v>
+      </c>
+      <c r="DR8">
+        <v>0.04</v>
+      </c>
+      <c r="DS8">
+        <v>-0.035</v>
+      </c>
+      <c r="DT8">
+        <v>0.003</v>
+      </c>
+      <c r="DU8">
+        <v>0.114</v>
+      </c>
+      <c r="DV8">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="9" spans="1:89">
+    <row r="9" spans="1:126">
       <c r="A9" s="1" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="B9">
         <v>0.305</v>
@@ -10243,10 +14176,121 @@
       <c r="CK9">
         <v>0.305</v>
       </c>
+      <c r="CL9">
+        <v>0.305</v>
+      </c>
+      <c r="CM9">
+        <v>0.305</v>
+      </c>
+      <c r="CN9">
+        <v>0.015</v>
+      </c>
+      <c r="CO9">
+        <v>0.074</v>
+      </c>
+      <c r="CP9">
+        <v>0.305</v>
+      </c>
+      <c r="CQ9">
+        <v>0.305</v>
+      </c>
+      <c r="CR9">
+        <v>0.015</v>
+      </c>
+      <c r="CS9">
+        <v>0.074</v>
+      </c>
+      <c r="CT9">
+        <v>0.305</v>
+      </c>
+      <c r="CU9">
+        <v>0.305</v>
+      </c>
+      <c r="CV9">
+        <v>0.015</v>
+      </c>
+      <c r="CW9">
+        <v>0.074</v>
+      </c>
+      <c r="CX9">
+        <v>0.305</v>
+      </c>
+      <c r="CY9">
+        <v>0.305</v>
+      </c>
+      <c r="CZ9">
+        <v>0.015</v>
+      </c>
+      <c r="DA9">
+        <v>0.074</v>
+      </c>
+      <c r="DB9">
+        <v>0.305</v>
+      </c>
+      <c r="DC9">
+        <v>0.305</v>
+      </c>
+      <c r="DD9">
+        <v>0.015</v>
+      </c>
+      <c r="DE9">
+        <v>0.074</v>
+      </c>
+      <c r="DF9">
+        <v>0.305</v>
+      </c>
+      <c r="DG9">
+        <v>0</v>
+      </c>
+      <c r="DH9">
+        <v>0.305</v>
+      </c>
+      <c r="DI9">
+        <v>0.853</v>
+      </c>
+      <c r="DJ9">
+        <v>0.305</v>
+      </c>
+      <c r="DK9">
+        <v>0.305</v>
+      </c>
+      <c r="DL9">
+        <v>0.887</v>
+      </c>
+      <c r="DM9">
+        <v>0.344</v>
+      </c>
+      <c r="DN9">
+        <v>0.305</v>
+      </c>
+      <c r="DO9">
+        <v>0.853</v>
+      </c>
+      <c r="DP9">
+        <v>0.305</v>
+      </c>
+      <c r="DQ9">
+        <v>0.887</v>
+      </c>
+      <c r="DR9">
+        <v>0.344</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0.853</v>
+      </c>
+      <c r="DU9">
+        <v>0.887</v>
+      </c>
+      <c r="DV9">
+        <v>0.344</v>
+      </c>
     </row>
-    <row r="10" spans="1:89">
+    <row r="10" spans="1:126">
       <c r="A10" s="1" t="s">
-        <v>154</v>
+        <v>207</v>
       </c>
       <c r="B10">
         <v>0.25</v>
@@ -10500,10 +14544,115 @@
       <c r="CK10">
         <v>0.25</v>
       </c>
+      <c r="CL10">
+        <v>0.25</v>
+      </c>
+      <c r="CM10">
+        <v>0.25</v>
+      </c>
+      <c r="CN10">
+        <v>-1.489</v>
+      </c>
+      <c r="CO10">
+        <v>0.639</v>
+      </c>
+      <c r="CP10">
+        <v>0.25</v>
+      </c>
+      <c r="CQ10">
+        <v>0.25</v>
+      </c>
+      <c r="CR10">
+        <v>-1.489</v>
+      </c>
+      <c r="CS10">
+        <v>0.639</v>
+      </c>
+      <c r="CT10">
+        <v>0.25</v>
+      </c>
+      <c r="CU10">
+        <v>0.25</v>
+      </c>
+      <c r="CV10">
+        <v>-1.489</v>
+      </c>
+      <c r="CW10">
+        <v>0.639</v>
+      </c>
+      <c r="CX10">
+        <v>0.25</v>
+      </c>
+      <c r="CY10">
+        <v>0.25</v>
+      </c>
+      <c r="CZ10">
+        <v>-1.489</v>
+      </c>
+      <c r="DA10">
+        <v>0.639</v>
+      </c>
+      <c r="DB10">
+        <v>0.25</v>
+      </c>
+      <c r="DC10">
+        <v>0.25</v>
+      </c>
+      <c r="DD10">
+        <v>-1.489</v>
+      </c>
+      <c r="DE10">
+        <v>0.639</v>
+      </c>
+      <c r="DF10">
+        <v>0.25</v>
+      </c>
+      <c r="DH10">
+        <v>0.25</v>
+      </c>
+      <c r="DI10">
+        <v>0.047</v>
+      </c>
+      <c r="DJ10">
+        <v>0.25</v>
+      </c>
+      <c r="DK10">
+        <v>0.25</v>
+      </c>
+      <c r="DL10">
+        <v>0.428</v>
+      </c>
+      <c r="DM10">
+        <v>0.217</v>
+      </c>
+      <c r="DN10">
+        <v>0.25</v>
+      </c>
+      <c r="DO10">
+        <v>0.047</v>
+      </c>
+      <c r="DP10">
+        <v>0.25</v>
+      </c>
+      <c r="DQ10">
+        <v>0.428</v>
+      </c>
+      <c r="DR10">
+        <v>0.217</v>
+      </c>
+      <c r="DT10">
+        <v>0.047</v>
+      </c>
+      <c r="DU10">
+        <v>0.428</v>
+      </c>
+      <c r="DV10">
+        <v>0.217</v>
+      </c>
     </row>
-    <row r="11" spans="1:89">
+    <row r="11" spans="1:126">
       <c r="A11" s="1" t="s">
-        <v>155</v>
+        <v>208</v>
       </c>
       <c r="B11">
         <v>0.139</v>
@@ -10769,10 +14918,121 @@
       <c r="CK11">
         <v>0.139</v>
       </c>
+      <c r="CL11">
+        <v>0.139</v>
+      </c>
+      <c r="CM11">
+        <v>0.139</v>
+      </c>
+      <c r="CN11">
+        <v>-0.205</v>
+      </c>
+      <c r="CO11">
+        <v>0.214</v>
+      </c>
+      <c r="CP11">
+        <v>0.139</v>
+      </c>
+      <c r="CQ11">
+        <v>0.139</v>
+      </c>
+      <c r="CR11">
+        <v>-0.205</v>
+      </c>
+      <c r="CS11">
+        <v>0.214</v>
+      </c>
+      <c r="CT11">
+        <v>0.139</v>
+      </c>
+      <c r="CU11">
+        <v>0.139</v>
+      </c>
+      <c r="CV11">
+        <v>-0.205</v>
+      </c>
+      <c r="CW11">
+        <v>0.214</v>
+      </c>
+      <c r="CX11">
+        <v>0.139</v>
+      </c>
+      <c r="CY11">
+        <v>0.139</v>
+      </c>
+      <c r="CZ11">
+        <v>-0.205</v>
+      </c>
+      <c r="DA11">
+        <v>0.214</v>
+      </c>
+      <c r="DB11">
+        <v>0.139</v>
+      </c>
+      <c r="DC11">
+        <v>0.139</v>
+      </c>
+      <c r="DD11">
+        <v>-0.205</v>
+      </c>
+      <c r="DE11">
+        <v>0.214</v>
+      </c>
+      <c r="DF11">
+        <v>0.139</v>
+      </c>
+      <c r="DG11">
+        <v>-0.194</v>
+      </c>
+      <c r="DH11">
+        <v>0.139</v>
+      </c>
+      <c r="DI11">
+        <v>0.007</v>
+      </c>
+      <c r="DJ11">
+        <v>0.139</v>
+      </c>
+      <c r="DK11">
+        <v>0.139</v>
+      </c>
+      <c r="DL11">
+        <v>0.575</v>
+      </c>
+      <c r="DM11">
+        <v>0.13</v>
+      </c>
+      <c r="DN11">
+        <v>0.139</v>
+      </c>
+      <c r="DO11">
+        <v>0.007</v>
+      </c>
+      <c r="DP11">
+        <v>0.139</v>
+      </c>
+      <c r="DQ11">
+        <v>0.575</v>
+      </c>
+      <c r="DR11">
+        <v>0.13</v>
+      </c>
+      <c r="DS11">
+        <v>-0.194</v>
+      </c>
+      <c r="DT11">
+        <v>0.007</v>
+      </c>
+      <c r="DU11">
+        <v>0.575</v>
+      </c>
+      <c r="DV11">
+        <v>0.13</v>
+      </c>
     </row>
-    <row r="12" spans="1:89">
+    <row r="12" spans="1:126">
       <c r="A12" s="1" t="s">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="B12">
         <v>0.151</v>
@@ -11038,10 +15298,121 @@
       <c r="CK12">
         <v>0.151</v>
       </c>
+      <c r="CL12">
+        <v>0.151</v>
+      </c>
+      <c r="CM12">
+        <v>0.151</v>
+      </c>
+      <c r="CN12">
+        <v>0.161</v>
+      </c>
+      <c r="CO12">
+        <v>0.159</v>
+      </c>
+      <c r="CP12">
+        <v>0.151</v>
+      </c>
+      <c r="CQ12">
+        <v>0.151</v>
+      </c>
+      <c r="CR12">
+        <v>0.161</v>
+      </c>
+      <c r="CS12">
+        <v>0.159</v>
+      </c>
+      <c r="CT12">
+        <v>0.151</v>
+      </c>
+      <c r="CU12">
+        <v>0.151</v>
+      </c>
+      <c r="CV12">
+        <v>0.161</v>
+      </c>
+      <c r="CW12">
+        <v>0.159</v>
+      </c>
+      <c r="CX12">
+        <v>0.151</v>
+      </c>
+      <c r="CY12">
+        <v>0.151</v>
+      </c>
+      <c r="CZ12">
+        <v>0.161</v>
+      </c>
+      <c r="DA12">
+        <v>0.159</v>
+      </c>
+      <c r="DB12">
+        <v>0.151</v>
+      </c>
+      <c r="DC12">
+        <v>0.151</v>
+      </c>
+      <c r="DD12">
+        <v>0.161</v>
+      </c>
+      <c r="DE12">
+        <v>0.159</v>
+      </c>
+      <c r="DF12">
+        <v>0.151</v>
+      </c>
+      <c r="DG12">
+        <v>0.162</v>
+      </c>
+      <c r="DH12">
+        <v>0.151</v>
+      </c>
+      <c r="DI12">
+        <v>0.142</v>
+      </c>
+      <c r="DJ12">
+        <v>0.151</v>
+      </c>
+      <c r="DK12">
+        <v>0.151</v>
+      </c>
+      <c r="DL12">
+        <v>0.119</v>
+      </c>
+      <c r="DM12">
+        <v>0.159</v>
+      </c>
+      <c r="DN12">
+        <v>0.151</v>
+      </c>
+      <c r="DO12">
+        <v>0.142</v>
+      </c>
+      <c r="DP12">
+        <v>0.151</v>
+      </c>
+      <c r="DQ12">
+        <v>0.119</v>
+      </c>
+      <c r="DR12">
+        <v>0.159</v>
+      </c>
+      <c r="DS12">
+        <v>0.162</v>
+      </c>
+      <c r="DT12">
+        <v>0.142</v>
+      </c>
+      <c r="DU12">
+        <v>0.119</v>
+      </c>
+      <c r="DV12">
+        <v>0.159</v>
+      </c>
     </row>
-    <row r="13" spans="1:89">
+    <row r="13" spans="1:126">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>210</v>
       </c>
       <c r="B13">
         <v>0.239</v>
@@ -11307,10 +15678,121 @@
       <c r="CK13">
         <v>0.239</v>
       </c>
+      <c r="CL13">
+        <v>0.239</v>
+      </c>
+      <c r="CM13">
+        <v>0.239</v>
+      </c>
+      <c r="CN13">
+        <v>0.243</v>
+      </c>
+      <c r="CO13">
+        <v>0.249</v>
+      </c>
+      <c r="CP13">
+        <v>0.239</v>
+      </c>
+      <c r="CQ13">
+        <v>0.239</v>
+      </c>
+      <c r="CR13">
+        <v>0.243</v>
+      </c>
+      <c r="CS13">
+        <v>0.249</v>
+      </c>
+      <c r="CT13">
+        <v>0.239</v>
+      </c>
+      <c r="CU13">
+        <v>0.239</v>
+      </c>
+      <c r="CV13">
+        <v>0.243</v>
+      </c>
+      <c r="CW13">
+        <v>0.249</v>
+      </c>
+      <c r="CX13">
+        <v>0.239</v>
+      </c>
+      <c r="CY13">
+        <v>0.239</v>
+      </c>
+      <c r="CZ13">
+        <v>0.243</v>
+      </c>
+      <c r="DA13">
+        <v>0.249</v>
+      </c>
+      <c r="DB13">
+        <v>0.239</v>
+      </c>
+      <c r="DC13">
+        <v>0.239</v>
+      </c>
+      <c r="DD13">
+        <v>0.243</v>
+      </c>
+      <c r="DE13">
+        <v>0.249</v>
+      </c>
+      <c r="DF13">
+        <v>0.239</v>
+      </c>
+      <c r="DG13">
+        <v>0.246</v>
+      </c>
+      <c r="DH13">
+        <v>0.239</v>
+      </c>
+      <c r="DI13">
+        <v>0.218</v>
+      </c>
+      <c r="DJ13">
+        <v>0.239</v>
+      </c>
+      <c r="DK13">
+        <v>0.239</v>
+      </c>
+      <c r="DL13">
+        <v>0.196</v>
+      </c>
+      <c r="DM13">
+        <v>0.248</v>
+      </c>
+      <c r="DN13">
+        <v>0.239</v>
+      </c>
+      <c r="DO13">
+        <v>0.218</v>
+      </c>
+      <c r="DP13">
+        <v>0.239</v>
+      </c>
+      <c r="DQ13">
+        <v>0.196</v>
+      </c>
+      <c r="DR13">
+        <v>0.248</v>
+      </c>
+      <c r="DS13">
+        <v>0.246</v>
+      </c>
+      <c r="DT13">
+        <v>0.218</v>
+      </c>
+      <c r="DU13">
+        <v>0.196</v>
+      </c>
+      <c r="DV13">
+        <v>0.248</v>
+      </c>
     </row>
-    <row r="14" spans="1:89">
+    <row r="14" spans="1:126">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="B14">
         <v>0.22</v>
@@ -11576,10 +16058,121 @@
       <c r="CK14">
         <v>0.22</v>
       </c>
+      <c r="CL14">
+        <v>0.22</v>
+      </c>
+      <c r="CM14">
+        <v>0.22</v>
+      </c>
+      <c r="CN14">
+        <v>-0.309</v>
+      </c>
+      <c r="CO14">
+        <v>0.337</v>
+      </c>
+      <c r="CP14">
+        <v>0.22</v>
+      </c>
+      <c r="CQ14">
+        <v>0.22</v>
+      </c>
+      <c r="CR14">
+        <v>-0.309</v>
+      </c>
+      <c r="CS14">
+        <v>0.337</v>
+      </c>
+      <c r="CT14">
+        <v>0.22</v>
+      </c>
+      <c r="CU14">
+        <v>0.22</v>
+      </c>
+      <c r="CV14">
+        <v>-0.309</v>
+      </c>
+      <c r="CW14">
+        <v>0.337</v>
+      </c>
+      <c r="CX14">
+        <v>0.22</v>
+      </c>
+      <c r="CY14">
+        <v>0.22</v>
+      </c>
+      <c r="CZ14">
+        <v>-0.309</v>
+      </c>
+      <c r="DA14">
+        <v>0.337</v>
+      </c>
+      <c r="DB14">
+        <v>0.22</v>
+      </c>
+      <c r="DC14">
+        <v>0.22</v>
+      </c>
+      <c r="DD14">
+        <v>-0.309</v>
+      </c>
+      <c r="DE14">
+        <v>0.337</v>
+      </c>
+      <c r="DF14">
+        <v>0.22</v>
+      </c>
+      <c r="DG14">
+        <v>-0.295</v>
+      </c>
+      <c r="DH14">
+        <v>0.22</v>
+      </c>
+      <c r="DI14">
+        <v>0.011</v>
+      </c>
+      <c r="DJ14">
+        <v>0.22</v>
+      </c>
+      <c r="DK14">
+        <v>0.22</v>
+      </c>
+      <c r="DL14">
+        <v>0.948</v>
+      </c>
+      <c r="DM14">
+        <v>0.201</v>
+      </c>
+      <c r="DN14">
+        <v>0.22</v>
+      </c>
+      <c r="DO14">
+        <v>0.011</v>
+      </c>
+      <c r="DP14">
+        <v>0.22</v>
+      </c>
+      <c r="DQ14">
+        <v>0.948</v>
+      </c>
+      <c r="DR14">
+        <v>0.201</v>
+      </c>
+      <c r="DS14">
+        <v>-0.295</v>
+      </c>
+      <c r="DT14">
+        <v>0.011</v>
+      </c>
+      <c r="DU14">
+        <v>0.948</v>
+      </c>
+      <c r="DV14">
+        <v>0.201</v>
+      </c>
     </row>
-    <row r="15" spans="1:89">
+    <row r="15" spans="1:126">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B15">
         <v>0.183</v>
@@ -11845,10 +16438,121 @@
       <c r="CK15">
         <v>0.183</v>
       </c>
+      <c r="CL15">
+        <v>0.183</v>
+      </c>
+      <c r="CM15">
+        <v>0.183</v>
+      </c>
+      <c r="CN15">
+        <v>0.025</v>
+      </c>
+      <c r="CO15">
+        <v>0.103</v>
+      </c>
+      <c r="CP15">
+        <v>0.183</v>
+      </c>
+      <c r="CQ15">
+        <v>0.183</v>
+      </c>
+      <c r="CR15">
+        <v>0.025</v>
+      </c>
+      <c r="CS15">
+        <v>0.103</v>
+      </c>
+      <c r="CT15">
+        <v>0.183</v>
+      </c>
+      <c r="CU15">
+        <v>0.183</v>
+      </c>
+      <c r="CV15">
+        <v>0.025</v>
+      </c>
+      <c r="CW15">
+        <v>0.103</v>
+      </c>
+      <c r="CX15">
+        <v>0.183</v>
+      </c>
+      <c r="CY15">
+        <v>0.183</v>
+      </c>
+      <c r="CZ15">
+        <v>0.025</v>
+      </c>
+      <c r="DA15">
+        <v>0.103</v>
+      </c>
+      <c r="DB15">
+        <v>0.183</v>
+      </c>
+      <c r="DC15">
+        <v>0.183</v>
+      </c>
+      <c r="DD15">
+        <v>0.025</v>
+      </c>
+      <c r="DE15">
+        <v>0.103</v>
+      </c>
+      <c r="DF15">
+        <v>0.183</v>
+      </c>
+      <c r="DG15">
+        <v>0</v>
+      </c>
+      <c r="DH15">
+        <v>0.183</v>
+      </c>
+      <c r="DI15">
+        <v>0.3</v>
+      </c>
+      <c r="DJ15">
+        <v>0.183</v>
+      </c>
+      <c r="DK15">
+        <v>0.183</v>
+      </c>
+      <c r="DL15">
+        <v>0.292</v>
+      </c>
+      <c r="DM15">
+        <v>0.206</v>
+      </c>
+      <c r="DN15">
+        <v>0.183</v>
+      </c>
+      <c r="DO15">
+        <v>0.3</v>
+      </c>
+      <c r="DP15">
+        <v>0.183</v>
+      </c>
+      <c r="DQ15">
+        <v>0.292</v>
+      </c>
+      <c r="DR15">
+        <v>0.206</v>
+      </c>
+      <c r="DS15">
+        <v>0</v>
+      </c>
+      <c r="DT15">
+        <v>0.3</v>
+      </c>
+      <c r="DU15">
+        <v>0.292</v>
+      </c>
+      <c r="DV15">
+        <v>0.206</v>
+      </c>
     </row>
-    <row r="16" spans="1:89">
+    <row r="16" spans="1:126">
       <c r="A16" s="1" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="B16">
         <v>0.427</v>
@@ -12114,10 +16818,121 @@
       <c r="CK16">
         <v>0.427</v>
       </c>
+      <c r="CL16">
+        <v>0.427</v>
+      </c>
+      <c r="CM16">
+        <v>0.427</v>
+      </c>
+      <c r="CN16">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="CO16">
+        <v>0.125</v>
+      </c>
+      <c r="CP16">
+        <v>0.427</v>
+      </c>
+      <c r="CQ16">
+        <v>0.427</v>
+      </c>
+      <c r="CR16">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="CS16">
+        <v>0.125</v>
+      </c>
+      <c r="CT16">
+        <v>0.427</v>
+      </c>
+      <c r="CU16">
+        <v>0.427</v>
+      </c>
+      <c r="CV16">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="CW16">
+        <v>0.125</v>
+      </c>
+      <c r="CX16">
+        <v>0.427</v>
+      </c>
+      <c r="CY16">
+        <v>0.427</v>
+      </c>
+      <c r="CZ16">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="DA16">
+        <v>0.125</v>
+      </c>
+      <c r="DB16">
+        <v>0.427</v>
+      </c>
+      <c r="DC16">
+        <v>0.427</v>
+      </c>
+      <c r="DD16">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="DE16">
+        <v>0.125</v>
+      </c>
+      <c r="DF16">
+        <v>0.427</v>
+      </c>
+      <c r="DG16">
+        <v>0</v>
+      </c>
+      <c r="DH16">
+        <v>0.427</v>
+      </c>
+      <c r="DI16">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="DJ16">
+        <v>0.427</v>
+      </c>
+      <c r="DK16">
+        <v>0.427</v>
+      </c>
+      <c r="DL16">
+        <v>0.432</v>
+      </c>
+      <c r="DM16">
+        <v>0.437</v>
+      </c>
+      <c r="DN16">
+        <v>0.427</v>
+      </c>
+      <c r="DO16">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="DP16">
+        <v>0.427</v>
+      </c>
+      <c r="DQ16">
+        <v>0.432</v>
+      </c>
+      <c r="DR16">
+        <v>0.437</v>
+      </c>
+      <c r="DS16">
+        <v>0</v>
+      </c>
+      <c r="DT16">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="DU16">
+        <v>0.432</v>
+      </c>
+      <c r="DV16">
+        <v>0.437</v>
+      </c>
     </row>
-    <row r="17" spans="1:89">
+    <row r="17" spans="1:126">
       <c r="A17" s="1" t="s">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="B17">
         <v>13989858908.791</v>
@@ -12383,10 +17198,121 @@
       <c r="CK17">
         <v>13989858908.791</v>
       </c>
+      <c r="CL17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="CM17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="CN17">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="CO17">
+        <v>16506741787.15</v>
+      </c>
+      <c r="CP17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="CQ17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="CR17">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="CS17">
+        <v>16506741787.15</v>
+      </c>
+      <c r="CT17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="CU17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="CV17">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="CW17">
+        <v>16506741787.15</v>
+      </c>
+      <c r="CX17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="CY17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="CZ17">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="DA17">
+        <v>16506741787.15</v>
+      </c>
+      <c r="DB17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="DC17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="DD17">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="DE17">
+        <v>16506741787.15</v>
+      </c>
+      <c r="DF17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="DG17">
+        <v>10000000000</v>
+      </c>
+      <c r="DH17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="DI17">
+        <v>10212274365.544</v>
+      </c>
+      <c r="DJ17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="DK17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="DL17">
+        <v>18477766215.291</v>
+      </c>
+      <c r="DM17">
+        <v>13589810841.507</v>
+      </c>
+      <c r="DN17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="DO17">
+        <v>10212274365.544</v>
+      </c>
+      <c r="DP17">
+        <v>13989858908.791</v>
+      </c>
+      <c r="DQ17">
+        <v>18477766215.291</v>
+      </c>
+      <c r="DR17">
+        <v>13589810841.507</v>
+      </c>
+      <c r="DS17">
+        <v>10000000000</v>
+      </c>
+      <c r="DT17">
+        <v>10212274365.544</v>
+      </c>
+      <c r="DU17">
+        <v>18477766215.291</v>
+      </c>
+      <c r="DV17">
+        <v>13589810841.507</v>
+      </c>
     </row>
-    <row r="18" spans="1:89">
+    <row r="18" spans="1:126">
       <c r="A18" s="1" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="B18">
         <v>6421146333.791</v>
@@ -12652,10 +17578,121 @@
       <c r="CK18">
         <v>6421146333.791</v>
       </c>
+      <c r="CL18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="CM18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="CN18">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="CO18">
+        <v>16506741787.15</v>
+      </c>
+      <c r="CP18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="CQ18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="CR18">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="CS18">
+        <v>16506741787.15</v>
+      </c>
+      <c r="CT18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="CU18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="CV18">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="CW18">
+        <v>16506741787.15</v>
+      </c>
+      <c r="CX18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="CY18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="CZ18">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="DA18">
+        <v>16506741787.15</v>
+      </c>
+      <c r="DB18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="DC18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="DD18">
+        <v>9878100685.056999</v>
+      </c>
+      <c r="DE18">
+        <v>16506741787.15</v>
+      </c>
+      <c r="DF18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="DG18">
+        <v>10000000000</v>
+      </c>
+      <c r="DH18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="DI18">
+        <v>130731915.044</v>
+      </c>
+      <c r="DJ18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="DK18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="DL18">
+        <v>294731877.791</v>
+      </c>
+      <c r="DM18">
+        <v>6237530786.507</v>
+      </c>
+      <c r="DN18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="DO18">
+        <v>130731915.044</v>
+      </c>
+      <c r="DP18">
+        <v>6421146333.791</v>
+      </c>
+      <c r="DQ18">
+        <v>294731877.791</v>
+      </c>
+      <c r="DR18">
+        <v>6237530786.507</v>
+      </c>
+      <c r="DS18">
+        <v>10000000000</v>
+      </c>
+      <c r="DT18">
+        <v>130731915.044</v>
+      </c>
+      <c r="DU18">
+        <v>294731877.791</v>
+      </c>
+      <c r="DV18">
+        <v>6237530786.507</v>
+      </c>
     </row>
-    <row r="19" spans="1:89">
+    <row r="19" spans="1:126">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="B19">
         <v>0.398986</v>
@@ -12921,10 +17958,121 @@
       <c r="CK19">
         <v>0.398986</v>
       </c>
+      <c r="CL19">
+        <v>0.398986</v>
+      </c>
+      <c r="CM19">
+        <v>0.398986</v>
+      </c>
+      <c r="CN19">
+        <v>-0.01219</v>
+      </c>
+      <c r="CO19">
+        <v>0.650674</v>
+      </c>
+      <c r="CP19">
+        <v>0.398986</v>
+      </c>
+      <c r="CQ19">
+        <v>0.398986</v>
+      </c>
+      <c r="CR19">
+        <v>-0.01219</v>
+      </c>
+      <c r="CS19">
+        <v>0.650674</v>
+      </c>
+      <c r="CT19">
+        <v>0.398986</v>
+      </c>
+      <c r="CU19">
+        <v>0.398986</v>
+      </c>
+      <c r="CV19">
+        <v>-0.01219</v>
+      </c>
+      <c r="CW19">
+        <v>0.650674</v>
+      </c>
+      <c r="CX19">
+        <v>0.398986</v>
+      </c>
+      <c r="CY19">
+        <v>0.398986</v>
+      </c>
+      <c r="CZ19">
+        <v>-0.01219</v>
+      </c>
+      <c r="DA19">
+        <v>0.650674</v>
+      </c>
+      <c r="DB19">
+        <v>0.398986</v>
+      </c>
+      <c r="DC19">
+        <v>0.398986</v>
+      </c>
+      <c r="DD19">
+        <v>-0.01219</v>
+      </c>
+      <c r="DE19">
+        <v>0.650674</v>
+      </c>
+      <c r="DF19">
+        <v>0.398986</v>
+      </c>
+      <c r="DG19">
+        <v>0</v>
+      </c>
+      <c r="DH19">
+        <v>0.398986</v>
+      </c>
+      <c r="DI19">
+        <v>0.021227</v>
+      </c>
+      <c r="DJ19">
+        <v>0.398986</v>
+      </c>
+      <c r="DK19">
+        <v>0.398986</v>
+      </c>
+      <c r="DL19">
+        <v>0.847777</v>
+      </c>
+      <c r="DM19">
+        <v>0.358981</v>
+      </c>
+      <c r="DN19">
+        <v>0.398986</v>
+      </c>
+      <c r="DO19">
+        <v>0.021227</v>
+      </c>
+      <c r="DP19">
+        <v>0.398986</v>
+      </c>
+      <c r="DQ19">
+        <v>0.847777</v>
+      </c>
+      <c r="DR19">
+        <v>0.358981</v>
+      </c>
+      <c r="DS19">
+        <v>0</v>
+      </c>
+      <c r="DT19">
+        <v>0.021227</v>
+      </c>
+      <c r="DU19">
+        <v>0.847777</v>
+      </c>
+      <c r="DV19">
+        <v>0.358981</v>
+      </c>
     </row>
-    <row r="20" spans="1:89">
+    <row r="20" spans="1:126">
       <c r="A20" s="1" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="B20">
         <v>0.066</v>
@@ -13190,10 +18338,121 @@
       <c r="CK20">
         <v>0.066</v>
       </c>
+      <c r="CL20">
+        <v>0.066</v>
+      </c>
+      <c r="CM20">
+        <v>0.066</v>
+      </c>
+      <c r="CN20">
+        <v>-0.002</v>
+      </c>
+      <c r="CO20">
+        <v>0.101</v>
+      </c>
+      <c r="CP20">
+        <v>0.066</v>
+      </c>
+      <c r="CQ20">
+        <v>0.066</v>
+      </c>
+      <c r="CR20">
+        <v>-0.002</v>
+      </c>
+      <c r="CS20">
+        <v>0.101</v>
+      </c>
+      <c r="CT20">
+        <v>0.066</v>
+      </c>
+      <c r="CU20">
+        <v>0.066</v>
+      </c>
+      <c r="CV20">
+        <v>-0.002</v>
+      </c>
+      <c r="CW20">
+        <v>0.101</v>
+      </c>
+      <c r="CX20">
+        <v>0.066</v>
+      </c>
+      <c r="CY20">
+        <v>0.066</v>
+      </c>
+      <c r="CZ20">
+        <v>-0.002</v>
+      </c>
+      <c r="DA20">
+        <v>0.101</v>
+      </c>
+      <c r="DB20">
+        <v>0.066</v>
+      </c>
+      <c r="DC20">
+        <v>0.066</v>
+      </c>
+      <c r="DD20">
+        <v>-0.002</v>
+      </c>
+      <c r="DE20">
+        <v>0.101</v>
+      </c>
+      <c r="DF20">
+        <v>0.066</v>
+      </c>
+      <c r="DG20">
+        <v>0</v>
+      </c>
+      <c r="DH20">
+        <v>0.066</v>
+      </c>
+      <c r="DI20">
+        <v>0.004</v>
+      </c>
+      <c r="DJ20">
+        <v>0.066</v>
+      </c>
+      <c r="DK20">
+        <v>0.066</v>
+      </c>
+      <c r="DL20">
+        <v>0.125</v>
+      </c>
+      <c r="DM20">
+        <v>0.06</v>
+      </c>
+      <c r="DN20">
+        <v>0.066</v>
+      </c>
+      <c r="DO20">
+        <v>0.004</v>
+      </c>
+      <c r="DP20">
+        <v>0.066</v>
+      </c>
+      <c r="DQ20">
+        <v>0.125</v>
+      </c>
+      <c r="DR20">
+        <v>0.06</v>
+      </c>
+      <c r="DS20">
+        <v>0</v>
+      </c>
+      <c r="DT20">
+        <v>0.004</v>
+      </c>
+      <c r="DU20">
+        <v>0.125</v>
+      </c>
+      <c r="DV20">
+        <v>0.06</v>
+      </c>
     </row>
-    <row r="21" spans="1:89">
+    <row r="21" spans="1:126">
       <c r="A21" s="1" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="B21">
         <v>1.399</v>
@@ -13459,10 +18718,121 @@
       <c r="CK21">
         <v>1.399</v>
       </c>
+      <c r="CL21">
+        <v>1.399</v>
+      </c>
+      <c r="CM21">
+        <v>1.399</v>
+      </c>
+      <c r="CN21">
+        <v>0.988</v>
+      </c>
+      <c r="CO21">
+        <v>1.651</v>
+      </c>
+      <c r="CP21">
+        <v>1.399</v>
+      </c>
+      <c r="CQ21">
+        <v>1.399</v>
+      </c>
+      <c r="CR21">
+        <v>0.988</v>
+      </c>
+      <c r="CS21">
+        <v>1.651</v>
+      </c>
+      <c r="CT21">
+        <v>1.399</v>
+      </c>
+      <c r="CU21">
+        <v>1.399</v>
+      </c>
+      <c r="CV21">
+        <v>0.988</v>
+      </c>
+      <c r="CW21">
+        <v>1.651</v>
+      </c>
+      <c r="CX21">
+        <v>1.399</v>
+      </c>
+      <c r="CY21">
+        <v>1.399</v>
+      </c>
+      <c r="CZ21">
+        <v>0.988</v>
+      </c>
+      <c r="DA21">
+        <v>1.651</v>
+      </c>
+      <c r="DB21">
+        <v>1.399</v>
+      </c>
+      <c r="DC21">
+        <v>1.399</v>
+      </c>
+      <c r="DD21">
+        <v>0.988</v>
+      </c>
+      <c r="DE21">
+        <v>1.651</v>
+      </c>
+      <c r="DF21">
+        <v>1.399</v>
+      </c>
+      <c r="DG21">
+        <v>1</v>
+      </c>
+      <c r="DH21">
+        <v>1.399</v>
+      </c>
+      <c r="DI21">
+        <v>1.021</v>
+      </c>
+      <c r="DJ21">
+        <v>1.399</v>
+      </c>
+      <c r="DK21">
+        <v>1.399</v>
+      </c>
+      <c r="DL21">
+        <v>1.848</v>
+      </c>
+      <c r="DM21">
+        <v>1.359</v>
+      </c>
+      <c r="DN21">
+        <v>1.399</v>
+      </c>
+      <c r="DO21">
+        <v>1.021</v>
+      </c>
+      <c r="DP21">
+        <v>1.399</v>
+      </c>
+      <c r="DQ21">
+        <v>1.848</v>
+      </c>
+      <c r="DR21">
+        <v>1.359</v>
+      </c>
+      <c r="DS21">
+        <v>1</v>
+      </c>
+      <c r="DT21">
+        <v>1.021</v>
+      </c>
+      <c r="DU21">
+        <v>1.848</v>
+      </c>
+      <c r="DV21">
+        <v>1.359</v>
+      </c>
     </row>
-    <row r="22" spans="1:89">
+    <row r="22" spans="1:126">
       <c r="A22" s="1" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="B22">
         <v>10000000000</v>
@@ -13728,10 +19098,121 @@
       <c r="CK22">
         <v>10000000000</v>
       </c>
+      <c r="CL22">
+        <v>10000000000</v>
+      </c>
+      <c r="CM22">
+        <v>10000000000</v>
+      </c>
+      <c r="CN22">
+        <v>10000000000</v>
+      </c>
+      <c r="CO22">
+        <v>10000000000</v>
+      </c>
+      <c r="CP22">
+        <v>10000000000</v>
+      </c>
+      <c r="CQ22">
+        <v>10000000000</v>
+      </c>
+      <c r="CR22">
+        <v>10000000000</v>
+      </c>
+      <c r="CS22">
+        <v>10000000000</v>
+      </c>
+      <c r="CT22">
+        <v>10000000000</v>
+      </c>
+      <c r="CU22">
+        <v>10000000000</v>
+      </c>
+      <c r="CV22">
+        <v>10000000000</v>
+      </c>
+      <c r="CW22">
+        <v>10000000000</v>
+      </c>
+      <c r="CX22">
+        <v>10000000000</v>
+      </c>
+      <c r="CY22">
+        <v>10000000000</v>
+      </c>
+      <c r="CZ22">
+        <v>10000000000</v>
+      </c>
+      <c r="DA22">
+        <v>10000000000</v>
+      </c>
+      <c r="DB22">
+        <v>10000000000</v>
+      </c>
+      <c r="DC22">
+        <v>10000000000</v>
+      </c>
+      <c r="DD22">
+        <v>10000000000</v>
+      </c>
+      <c r="DE22">
+        <v>10000000000</v>
+      </c>
+      <c r="DF22">
+        <v>10000000000</v>
+      </c>
+      <c r="DG22">
+        <v>10000000000</v>
+      </c>
+      <c r="DH22">
+        <v>10000000000</v>
+      </c>
+      <c r="DI22">
+        <v>10000000000</v>
+      </c>
+      <c r="DJ22">
+        <v>10000000000</v>
+      </c>
+      <c r="DK22">
+        <v>10000000000</v>
+      </c>
+      <c r="DL22">
+        <v>10000000000</v>
+      </c>
+      <c r="DM22">
+        <v>10000000000</v>
+      </c>
+      <c r="DN22">
+        <v>10000000000</v>
+      </c>
+      <c r="DO22">
+        <v>10000000000</v>
+      </c>
+      <c r="DP22">
+        <v>10000000000</v>
+      </c>
+      <c r="DQ22">
+        <v>10000000000</v>
+      </c>
+      <c r="DR22">
+        <v>10000000000</v>
+      </c>
+      <c r="DS22">
+        <v>10000000000</v>
+      </c>
+      <c r="DT22">
+        <v>10000000000</v>
+      </c>
+      <c r="DU22">
+        <v>10000000000</v>
+      </c>
+      <c r="DV22">
+        <v>10000000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:89">
+    <row r="23" spans="1:126">
       <c r="A23" s="1" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
       <c r="B23">
         <v>0.094</v>
@@ -13997,10 +19478,121 @@
       <c r="CK23">
         <v>0.094</v>
       </c>
+      <c r="CL23">
+        <v>0.094</v>
+      </c>
+      <c r="CM23">
+        <v>0.094</v>
+      </c>
+      <c r="CN23">
+        <v>0.094</v>
+      </c>
+      <c r="CO23">
+        <v>0.094</v>
+      </c>
+      <c r="CP23">
+        <v>0.094</v>
+      </c>
+      <c r="CQ23">
+        <v>0.094</v>
+      </c>
+      <c r="CR23">
+        <v>0.094</v>
+      </c>
+      <c r="CS23">
+        <v>0.094</v>
+      </c>
+      <c r="CT23">
+        <v>0.094</v>
+      </c>
+      <c r="CU23">
+        <v>0.094</v>
+      </c>
+      <c r="CV23">
+        <v>0.094</v>
+      </c>
+      <c r="CW23">
+        <v>0.094</v>
+      </c>
+      <c r="CX23">
+        <v>0.094</v>
+      </c>
+      <c r="CY23">
+        <v>0.094</v>
+      </c>
+      <c r="CZ23">
+        <v>0.094</v>
+      </c>
+      <c r="DA23">
+        <v>0.094</v>
+      </c>
+      <c r="DB23">
+        <v>0.094</v>
+      </c>
+      <c r="DC23">
+        <v>0.094</v>
+      </c>
+      <c r="DD23">
+        <v>0.094</v>
+      </c>
+      <c r="DE23">
+        <v>0.094</v>
+      </c>
+      <c r="DF23">
+        <v>0.094</v>
+      </c>
+      <c r="DG23">
+        <v>0.094</v>
+      </c>
+      <c r="DH23">
+        <v>0.094</v>
+      </c>
+      <c r="DI23">
+        <v>0.094</v>
+      </c>
+      <c r="DJ23">
+        <v>0.094</v>
+      </c>
+      <c r="DK23">
+        <v>0.094</v>
+      </c>
+      <c r="DL23">
+        <v>0.094</v>
+      </c>
+      <c r="DM23">
+        <v>0.094</v>
+      </c>
+      <c r="DN23">
+        <v>0.094</v>
+      </c>
+      <c r="DO23">
+        <v>0.094</v>
+      </c>
+      <c r="DP23">
+        <v>0.094</v>
+      </c>
+      <c r="DQ23">
+        <v>0.094</v>
+      </c>
+      <c r="DR23">
+        <v>0.094</v>
+      </c>
+      <c r="DS23">
+        <v>0.094</v>
+      </c>
+      <c r="DT23">
+        <v>0.094</v>
+      </c>
+      <c r="DU23">
+        <v>0.094</v>
+      </c>
+      <c r="DV23">
+        <v>0.094</v>
+      </c>
     </row>
-    <row r="24" spans="1:89">
+    <row r="24" spans="1:126">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
       <c r="B24">
         <v>0.017</v>
@@ -14266,10 +19858,121 @@
       <c r="CK24">
         <v>0.017</v>
       </c>
+      <c r="CL24">
+        <v>0.017</v>
+      </c>
+      <c r="CM24">
+        <v>0.017</v>
+      </c>
+      <c r="CN24">
+        <v>0.017</v>
+      </c>
+      <c r="CO24">
+        <v>0.017</v>
+      </c>
+      <c r="CP24">
+        <v>0.017</v>
+      </c>
+      <c r="CQ24">
+        <v>0.017</v>
+      </c>
+      <c r="CR24">
+        <v>0.017</v>
+      </c>
+      <c r="CS24">
+        <v>0.017</v>
+      </c>
+      <c r="CT24">
+        <v>0.017</v>
+      </c>
+      <c r="CU24">
+        <v>0.017</v>
+      </c>
+      <c r="CV24">
+        <v>0.017</v>
+      </c>
+      <c r="CW24">
+        <v>0.017</v>
+      </c>
+      <c r="CX24">
+        <v>0.017</v>
+      </c>
+      <c r="CY24">
+        <v>0.017</v>
+      </c>
+      <c r="CZ24">
+        <v>0.017</v>
+      </c>
+      <c r="DA24">
+        <v>0.017</v>
+      </c>
+      <c r="DB24">
+        <v>0.017</v>
+      </c>
+      <c r="DC24">
+        <v>0.017</v>
+      </c>
+      <c r="DD24">
+        <v>0.017</v>
+      </c>
+      <c r="DE24">
+        <v>0.017</v>
+      </c>
+      <c r="DF24">
+        <v>0.017</v>
+      </c>
+      <c r="DG24">
+        <v>0.017</v>
+      </c>
+      <c r="DH24">
+        <v>0.017</v>
+      </c>
+      <c r="DI24">
+        <v>0.017</v>
+      </c>
+      <c r="DJ24">
+        <v>0.017</v>
+      </c>
+      <c r="DK24">
+        <v>0.017</v>
+      </c>
+      <c r="DL24">
+        <v>0.017</v>
+      </c>
+      <c r="DM24">
+        <v>0.017</v>
+      </c>
+      <c r="DN24">
+        <v>0.017</v>
+      </c>
+      <c r="DO24">
+        <v>0.017</v>
+      </c>
+      <c r="DP24">
+        <v>0.017</v>
+      </c>
+      <c r="DQ24">
+        <v>0.017</v>
+      </c>
+      <c r="DR24">
+        <v>0.017</v>
+      </c>
+      <c r="DS24">
+        <v>0.017</v>
+      </c>
+      <c r="DT24">
+        <v>0.017</v>
+      </c>
+      <c r="DU24">
+        <v>0.017</v>
+      </c>
+      <c r="DV24">
+        <v>0.017</v>
+      </c>
     </row>
-    <row r="25" spans="1:89">
+    <row r="25" spans="1:126">
       <c r="A25" s="1" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -14533,6 +20236,117 @@
         <v>2</v>
       </c>
       <c r="CK25">
+        <v>2</v>
+      </c>
+      <c r="CL25">
+        <v>2</v>
+      </c>
+      <c r="CM25">
+        <v>2</v>
+      </c>
+      <c r="CN25">
+        <v>2</v>
+      </c>
+      <c r="CO25">
+        <v>2</v>
+      </c>
+      <c r="CP25">
+        <v>2</v>
+      </c>
+      <c r="CQ25">
+        <v>2</v>
+      </c>
+      <c r="CR25">
+        <v>2</v>
+      </c>
+      <c r="CS25">
+        <v>2</v>
+      </c>
+      <c r="CT25">
+        <v>2</v>
+      </c>
+      <c r="CU25">
+        <v>2</v>
+      </c>
+      <c r="CV25">
+        <v>2</v>
+      </c>
+      <c r="CW25">
+        <v>2</v>
+      </c>
+      <c r="CX25">
+        <v>2</v>
+      </c>
+      <c r="CY25">
+        <v>2</v>
+      </c>
+      <c r="CZ25">
+        <v>2</v>
+      </c>
+      <c r="DA25">
+        <v>2</v>
+      </c>
+      <c r="DB25">
+        <v>2</v>
+      </c>
+      <c r="DC25">
+        <v>2</v>
+      </c>
+      <c r="DD25">
+        <v>2</v>
+      </c>
+      <c r="DE25">
+        <v>2</v>
+      </c>
+      <c r="DF25">
+        <v>2</v>
+      </c>
+      <c r="DG25">
+        <v>2</v>
+      </c>
+      <c r="DH25">
+        <v>2</v>
+      </c>
+      <c r="DI25">
+        <v>2</v>
+      </c>
+      <c r="DJ25">
+        <v>2</v>
+      </c>
+      <c r="DK25">
+        <v>2</v>
+      </c>
+      <c r="DL25">
+        <v>2</v>
+      </c>
+      <c r="DM25">
+        <v>2</v>
+      </c>
+      <c r="DN25">
+        <v>2</v>
+      </c>
+      <c r="DO25">
+        <v>2</v>
+      </c>
+      <c r="DP25">
+        <v>2</v>
+      </c>
+      <c r="DQ25">
+        <v>2</v>
+      </c>
+      <c r="DR25">
+        <v>2</v>
+      </c>
+      <c r="DS25">
+        <v>2</v>
+      </c>
+      <c r="DT25">
+        <v>2</v>
+      </c>
+      <c r="DU25">
+        <v>2</v>
+      </c>
+      <c r="DV25">
         <v>2</v>
       </c>
     </row>
